--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6452,28 +6452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.8543516944826</v>
+        <v>255.5515028031741</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.0272497581927</v>
+        <v>349.6568402717537</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.0155262725938</v>
+        <v>316.2860821827794</v>
       </c>
       <c r="AD2" t="n">
-        <v>206854.3516944826</v>
+        <v>255551.5028031741</v>
       </c>
       <c r="AE2" t="n">
-        <v>283027.2497581927</v>
+        <v>349656.8402717537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840734694000457e-06</v>
+        <v>3.405841114804231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>256015.5262725938</v>
+        <v>316286.0821827794</v>
       </c>
     </row>
     <row r="3">
@@ -6558,28 +6558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.0065957747139</v>
+        <v>203.7036573748543</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.0868627472433</v>
+        <v>278.7163307912559</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.8455902324884</v>
+        <v>252.1160353614474</v>
       </c>
       <c r="AD3" t="n">
-        <v>155006.5957747139</v>
+        <v>203703.6573748543</v>
       </c>
       <c r="AE3" t="n">
-        <v>212086.8627472433</v>
+        <v>278716.3307912559</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277827780315017e-06</v>
+        <v>4.214577761763108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191845.5902324884</v>
+        <v>252116.0353614474</v>
       </c>
     </row>
     <row r="4">
@@ -6664,28 +6664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.1703617009287</v>
+        <v>183.6719121959422</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.3649815772475</v>
+        <v>251.3080132992559</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.1469903530988</v>
+        <v>227.32352922306</v>
       </c>
       <c r="AD4" t="n">
-        <v>147170.3617009287</v>
+        <v>183671.9121959422</v>
       </c>
       <c r="AE4" t="n">
-        <v>201364.9815772475</v>
+        <v>251308.0132992559</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455643391312792e-06</v>
+        <v>4.543583196801704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>182146.9903530988</v>
+        <v>227323.52922306</v>
       </c>
     </row>
     <row r="5">
@@ -6770,28 +6770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.2651720716833</v>
+        <v>180.7667225666968</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.3899729585952</v>
+        <v>247.3330046806036</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.5513509780498</v>
+        <v>223.7278898480109</v>
       </c>
       <c r="AD5" t="n">
-        <v>144265.1720716833</v>
+        <v>180766.7225666968</v>
       </c>
       <c r="AE5" t="n">
-        <v>197389.9729585952</v>
+        <v>247333.0046806036</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.531386586073592e-06</v>
+        <v>4.683727937770493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>178551.3509780498</v>
+        <v>223727.8898480109</v>
       </c>
     </row>
     <row r="6">
@@ -6876,28 +6876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5346319001285</v>
+        <v>166.1214337411625</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.2349980303168</v>
+        <v>227.2946744049745</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.319938569235</v>
+        <v>205.6019896899084</v>
       </c>
       <c r="AD6" t="n">
-        <v>129534.6319001285</v>
+        <v>166121.4337411626</v>
       </c>
       <c r="AE6" t="n">
-        <v>177234.9980303168</v>
+        <v>227294.6744049745</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.598703496301681e-06</v>
+        <v>4.808281846230891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>160319.938569235</v>
+        <v>205601.9896899083</v>
       </c>
     </row>
     <row r="7">
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.0086487192957</v>
+        <v>164.5954505603297</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.1470805206758</v>
+        <v>225.2067568953335</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.4312889763027</v>
+        <v>203.7133400969761</v>
       </c>
       <c r="AD7" t="n">
-        <v>128008.6487192957</v>
+        <v>164595.4505603297</v>
       </c>
       <c r="AE7" t="n">
-        <v>175147.0805206758</v>
+        <v>225206.7568953335</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63654008141948e-06</v>
+        <v>4.878289434862758e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.76171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>158431.2889763027</v>
+        <v>203713.3400969761</v>
       </c>
     </row>
     <row r="8">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.2605737752282</v>
+        <v>163.8473756162622</v>
       </c>
       <c r="AB8" t="n">
-        <v>174.1235313794658</v>
+        <v>224.1832077541235</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.5054259285693</v>
+        <v>202.7874770492427</v>
       </c>
       <c r="AD8" t="n">
-        <v>127260.5737752282</v>
+        <v>163847.3756162622</v>
       </c>
       <c r="AE8" t="n">
-        <v>174123.5313794658</v>
+        <v>224183.2077541235</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.654279627804136e-06</v>
+        <v>4.911112240143584e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>157505.4259285693</v>
+        <v>202787.4770492427</v>
       </c>
     </row>
     <row r="9">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.6680889862884</v>
+        <v>163.2548908273224</v>
       </c>
       <c r="AB9" t="n">
-        <v>173.3128675526547</v>
+        <v>223.3725439273124</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.7721307196149</v>
+        <v>202.0541818402883</v>
       </c>
       <c r="AD9" t="n">
-        <v>126668.0889862884</v>
+        <v>163254.8908273224</v>
       </c>
       <c r="AE9" t="n">
-        <v>173312.8675526547</v>
+        <v>223372.5439273124</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.667607629101029e-06</v>
+        <v>4.935772532005889e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>156772.1307196149</v>
+        <v>202054.1818402883</v>
       </c>
     </row>
     <row r="10">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.7934834745617</v>
+        <v>162.3802853155957</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.1161937066388</v>
+        <v>222.1758700812965</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.6896657459202</v>
+        <v>200.9717168665935</v>
       </c>
       <c r="AD10" t="n">
-        <v>125793.4834745617</v>
+        <v>162380.2853155957</v>
       </c>
       <c r="AE10" t="n">
-        <v>172116.1937066388</v>
+        <v>222175.8700812965</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.689035133813021e-06</v>
+        <v>4.975419025752992e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>155689.6657459202</v>
+        <v>200971.7168665935</v>
       </c>
     </row>
     <row r="11">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.0639346590158</v>
+        <v>161.6507365000498</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.1179928317872</v>
+        <v>221.1776692064449</v>
       </c>
       <c r="AC11" t="n">
-        <v>154.7867317615803</v>
+        <v>200.0687828822537</v>
       </c>
       <c r="AD11" t="n">
-        <v>125063.9346590158</v>
+        <v>161650.7365000498</v>
       </c>
       <c r="AE11" t="n">
-        <v>171117.9928317872</v>
+        <v>221177.6692064449</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.708361902768936e-06</v>
+        <v>5.011178608348418e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>154786.7317615803</v>
+        <v>200068.7828822537</v>
       </c>
     </row>
     <row r="12">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.684498536242</v>
+        <v>161.271300377276</v>
       </c>
       <c r="AB12" t="n">
-        <v>170.5988315890681</v>
+        <v>220.6585079637258</v>
       </c>
       <c r="AC12" t="n">
-        <v>154.3171185392188</v>
+        <v>199.5991696598922</v>
       </c>
       <c r="AD12" t="n">
-        <v>124684.498536242</v>
+        <v>161271.3003772761</v>
       </c>
       <c r="AE12" t="n">
-        <v>170598.8315890681</v>
+        <v>220658.5079637258</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.707054778298487e-06</v>
+        <v>5.008760085854041e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>154317.1185392188</v>
+        <v>199599.1696598922</v>
       </c>
     </row>
     <row r="13">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.0905439443123</v>
+        <v>160.6773457853463</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.7861567129629</v>
+        <v>219.8458330876206</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.5820042126925</v>
+        <v>198.8640553333659</v>
       </c>
       <c r="AD13" t="n">
-        <v>124090.5439443123</v>
+        <v>160677.3457853463</v>
       </c>
       <c r="AE13" t="n">
-        <v>169786.1567129629</v>
+        <v>219845.8330876206</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.726801694405617e-06</v>
+        <v>5.045297050679802e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>153582.0042126925</v>
+        <v>198864.0553333659</v>
       </c>
     </row>
     <row r="14">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>123.7936598451725</v>
+        <v>160.3804616862065</v>
       </c>
       <c r="AB14" t="n">
-        <v>169.379946790918</v>
+        <v>219.4396231655757</v>
       </c>
       <c r="AC14" t="n">
-        <v>153.2145623954883</v>
+        <v>198.4966135161616</v>
       </c>
       <c r="AD14" t="n">
-        <v>123793.6598451725</v>
+        <v>160380.4616862065</v>
       </c>
       <c r="AE14" t="n">
-        <v>169379.946790918</v>
+        <v>219439.6231655757</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.726731669880415e-06</v>
+        <v>5.045167486974746e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>153214.5623954883</v>
+        <v>198496.6135161616</v>
       </c>
     </row>
     <row r="15">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>123.1636229762991</v>
+        <v>159.7504248173332</v>
       </c>
       <c r="AB15" t="n">
-        <v>168.517902551661</v>
+        <v>218.5775789263186</v>
       </c>
       <c r="AC15" t="n">
-        <v>152.4347904485389</v>
+        <v>197.7168415692123</v>
       </c>
       <c r="AD15" t="n">
-        <v>123163.6229762991</v>
+        <v>159750.4248173332</v>
       </c>
       <c r="AE15" t="n">
-        <v>168517.902551661</v>
+        <v>218577.5789263186</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.742207089950187e-06</v>
+        <v>5.073801065792099e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>152434.7904485389</v>
+        <v>197716.8415692123</v>
       </c>
     </row>
     <row r="16">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>123.0368494939042</v>
+        <v>159.6236513349382</v>
       </c>
       <c r="AB16" t="n">
-        <v>168.344445480197</v>
+        <v>218.4041218548547</v>
       </c>
       <c r="AC16" t="n">
-        <v>152.2778878765268</v>
+        <v>197.5599389972002</v>
       </c>
       <c r="AD16" t="n">
-        <v>123036.8494939042</v>
+        <v>159623.6513349382</v>
       </c>
       <c r="AE16" t="n">
-        <v>168344.445480197</v>
+        <v>218404.1218548547</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.74363092196264e-06</v>
+        <v>5.076435527794902e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>152277.8878765269</v>
+        <v>197559.9389972002</v>
       </c>
     </row>
     <row r="17">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.6471472949052</v>
+        <v>159.2339491359392</v>
       </c>
       <c r="AB17" t="n">
-        <v>167.8112377390791</v>
+        <v>217.8709141137368</v>
       </c>
       <c r="AC17" t="n">
-        <v>151.7955687338594</v>
+        <v>197.0776198545327</v>
       </c>
       <c r="AD17" t="n">
-        <v>122647.1472949052</v>
+        <v>159233.9491359392</v>
       </c>
       <c r="AE17" t="n">
-        <v>167811.2377390791</v>
+        <v>217870.9141137368</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.746151804869933e-06</v>
+        <v>5.081099821176914e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>151795.5687338594</v>
+        <v>197077.6198545327</v>
       </c>
     </row>
     <row r="18">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>122.218428793222</v>
+        <v>158.805230634256</v>
       </c>
       <c r="AB18" t="n">
-        <v>167.2246461713511</v>
+        <v>217.2843225460088</v>
       </c>
       <c r="AC18" t="n">
-        <v>151.2649606420686</v>
+        <v>196.547011762742</v>
       </c>
       <c r="AD18" t="n">
-        <v>122218.428793222</v>
+        <v>158805.230634256</v>
       </c>
       <c r="AE18" t="n">
-        <v>167224.6461713511</v>
+        <v>217284.3225460088</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.74444787475667e-06</v>
+        <v>5.077947104353887e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>151264.9606420686</v>
+        <v>196547.011762742</v>
       </c>
     </row>
     <row r="19">
@@ -8254,28 +8254,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>121.4521401744959</v>
+        <v>157.8683498149377</v>
       </c>
       <c r="AB19" t="n">
-        <v>166.1761762769426</v>
+        <v>216.0024408767534</v>
       </c>
       <c r="AC19" t="n">
-        <v>150.3165552428455</v>
+        <v>195.3874710808678</v>
       </c>
       <c r="AD19" t="n">
-        <v>121452.1401744959</v>
+        <v>157868.3498149377</v>
       </c>
       <c r="AE19" t="n">
-        <v>166176.1762769426</v>
+        <v>216002.4408767534</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.765315183267041e-06</v>
+        <v>5.116557088460543e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>150316.5552428454</v>
+        <v>195387.4710808677</v>
       </c>
     </row>
     <row r="20">
@@ -8360,28 +8360,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>121.4293618863159</v>
+        <v>157.8455715267577</v>
       </c>
       <c r="AB20" t="n">
-        <v>166.1450100181476</v>
+        <v>215.9712746179585</v>
       </c>
       <c r="AC20" t="n">
-        <v>150.2883634480477</v>
+        <v>195.3592792860701</v>
       </c>
       <c r="AD20" t="n">
-        <v>121429.3618863159</v>
+        <v>157845.5715267577</v>
       </c>
       <c r="AE20" t="n">
-        <v>166145.0100181476</v>
+        <v>215971.2746179585</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.764754987065421e-06</v>
+        <v>5.115520578820096e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>150288.3634480477</v>
+        <v>195359.2792860701</v>
       </c>
     </row>
     <row r="21">
@@ -8466,28 +8466,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>121.2747104995476</v>
+        <v>157.6909201399894</v>
       </c>
       <c r="AB21" t="n">
-        <v>165.9334091680336</v>
+        <v>215.7596737678444</v>
       </c>
       <c r="AC21" t="n">
-        <v>150.0969574860849</v>
+        <v>195.1678733241072</v>
       </c>
       <c r="AD21" t="n">
-        <v>121274.7104995476</v>
+        <v>157690.9201399894</v>
       </c>
       <c r="AE21" t="n">
-        <v>165933.4091680336</v>
+        <v>215759.6737678444</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.764661621031817e-06</v>
+        <v>5.115347827213355e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>150096.9574860849</v>
+        <v>195167.8733241072</v>
       </c>
     </row>
     <row r="22">
@@ -8572,28 +8572,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>120.9456548336658</v>
+        <v>157.3618644741077</v>
       </c>
       <c r="AB22" t="n">
-        <v>165.4831806890631</v>
+        <v>215.3094452888739</v>
       </c>
       <c r="AC22" t="n">
-        <v>149.6896981812475</v>
+        <v>194.7606140192698</v>
       </c>
       <c r="AD22" t="n">
-        <v>120945.6548336658</v>
+        <v>157361.8644741077</v>
       </c>
       <c r="AE22" t="n">
-        <v>165483.1806890631</v>
+        <v>215309.4452888739</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.765665305893054e-06</v>
+        <v>5.117204906985822e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>149689.6981812475</v>
+        <v>194760.6140192698</v>
       </c>
     </row>
     <row r="23">
@@ -8678,28 +8678,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>120.4500663898236</v>
+        <v>156.8662760302654</v>
       </c>
       <c r="AB23" t="n">
-        <v>164.8050947163794</v>
+        <v>214.6313593161902</v>
       </c>
       <c r="AC23" t="n">
-        <v>149.0763277820969</v>
+        <v>194.1472436201192</v>
       </c>
       <c r="AD23" t="n">
-        <v>120450.0663898236</v>
+        <v>156866.2760302654</v>
       </c>
       <c r="AE23" t="n">
-        <v>164805.0947163794</v>
+        <v>214631.3593161902</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.768232871817149e-06</v>
+        <v>5.121955576171206e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH23" t="n">
-        <v>149076.3277820969</v>
+        <v>194147.2436201192</v>
       </c>
     </row>
     <row r="24">
@@ -8784,28 +8784,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>119.9243214691374</v>
+        <v>156.3405311095792</v>
       </c>
       <c r="AB24" t="n">
-        <v>164.0857473216679</v>
+        <v>213.9120119214787</v>
       </c>
       <c r="AC24" t="n">
-        <v>148.425633893126</v>
+        <v>193.4965497311483</v>
       </c>
       <c r="AD24" t="n">
-        <v>119924.3214691374</v>
+        <v>156340.5311095792</v>
       </c>
       <c r="AE24" t="n">
-        <v>164085.7473216679</v>
+        <v>213912.0119214787</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.768396262375955e-06</v>
+        <v>5.122257891483002e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH24" t="n">
-        <v>148425.633893126</v>
+        <v>193496.5497311483</v>
       </c>
     </row>
     <row r="25">
@@ -8890,28 +8890,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>119.3659351818164</v>
+        <v>155.7821448222582</v>
       </c>
       <c r="AB25" t="n">
-        <v>163.3217385690913</v>
+        <v>213.1480031689021</v>
       </c>
       <c r="AC25" t="n">
-        <v>147.7345410636021</v>
+        <v>192.8054569016244</v>
       </c>
       <c r="AD25" t="n">
-        <v>119365.9351818164</v>
+        <v>155782.1448222582</v>
       </c>
       <c r="AE25" t="n">
-        <v>163321.7385690913</v>
+        <v>213148.0031689021</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.766225502094675e-06</v>
+        <v>5.11824141662627e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>147734.5410636021</v>
+        <v>192805.4569016244</v>
       </c>
     </row>
     <row r="26">
@@ -8996,28 +8996,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>118.8254188864537</v>
+        <v>155.2416285268955</v>
       </c>
       <c r="AB26" t="n">
-        <v>162.5821803278804</v>
+        <v>212.4084449276912</v>
       </c>
       <c r="AC26" t="n">
-        <v>147.0655652229556</v>
+        <v>192.136481060978</v>
       </c>
       <c r="AD26" t="n">
-        <v>118825.4188864537</v>
+        <v>155241.6285268955</v>
       </c>
       <c r="AE26" t="n">
-        <v>162582.1803278804</v>
+        <v>212408.4449276912</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.785482246525387e-06</v>
+        <v>5.15387143551664e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>147065.5652229556</v>
+        <v>192136.481060978</v>
       </c>
     </row>
   </sheetData>
@@ -9293,28 +9293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.8011984052961</v>
+        <v>216.6854547355722</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.3294907581991</v>
+        <v>296.4785986566605</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.1562902367918</v>
+        <v>268.1830973112829</v>
       </c>
       <c r="AD2" t="n">
-        <v>169801.1984052961</v>
+        <v>216685.4547355722</v>
       </c>
       <c r="AE2" t="n">
-        <v>232329.4907581991</v>
+        <v>296478.5986566605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.114771452524791e-06</v>
+        <v>4.031080766263065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>210156.2902367918</v>
+        <v>268183.0973112829</v>
       </c>
     </row>
     <row r="3">
@@ -9399,28 +9399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.03272608238</v>
+        <v>174.2386111345106</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.2307095168086</v>
+        <v>238.4009546191406</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.0753575910557</v>
+        <v>215.6483021082001</v>
       </c>
       <c r="AD3" t="n">
-        <v>139032.72608238</v>
+        <v>174238.6111345106</v>
       </c>
       <c r="AE3" t="n">
-        <v>190230.7095168087</v>
+        <v>238400.9546191406</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.530790878605214e-06</v>
+        <v>4.824077997648255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>172075.3575910557</v>
+        <v>215648.3021082001</v>
       </c>
     </row>
     <row r="4">
@@ -9505,28 +9505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.1473259947126</v>
+        <v>157.4384623928638</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.1273601855964</v>
+        <v>215.4142499405777</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.1769594942526</v>
+        <v>194.8554162621093</v>
       </c>
       <c r="AD4" t="n">
-        <v>122147.3259947126</v>
+        <v>157438.4623928638</v>
       </c>
       <c r="AE4" t="n">
-        <v>167127.3601855965</v>
+        <v>215414.2499405777</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.678977727398271e-06</v>
+        <v>5.106545001479639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.865885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>151176.9594942526</v>
+        <v>194855.4162621093</v>
       </c>
     </row>
     <row r="5">
@@ -9611,28 +9611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.4068433715045</v>
+        <v>154.6979797696557</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.3777109589645</v>
+        <v>211.6646007139457</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.7851715271435</v>
+        <v>191.4636282950001</v>
       </c>
       <c r="AD5" t="n">
-        <v>119406.8433715045</v>
+        <v>154697.9797696557</v>
       </c>
       <c r="AE5" t="n">
-        <v>163377.7109589645</v>
+        <v>211664.6007139457</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.762741810576225e-06</v>
+        <v>5.266212271528697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>147785.1715271435</v>
+        <v>191463.6282950001</v>
       </c>
     </row>
     <row r="6">
@@ -9717,28 +9717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.4100379542196</v>
+        <v>153.7011743523709</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.0138378110847</v>
+        <v>210.3007275660659</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.551464518289</v>
+        <v>190.2299212861456</v>
       </c>
       <c r="AD6" t="n">
-        <v>118410.0379542196</v>
+        <v>153701.1743523709</v>
       </c>
       <c r="AE6" t="n">
-        <v>162013.8378110847</v>
+        <v>210300.7275660659</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.79051024403101e-06</v>
+        <v>5.319143191262458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.631510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>146551.464518289</v>
+        <v>190229.9212861456</v>
       </c>
     </row>
     <row r="7">
@@ -9823,28 +9823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.1162239635589</v>
+        <v>152.4073603617102</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.2435844300188</v>
+        <v>208.530474185</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.9501616353452</v>
+        <v>188.6286184032018</v>
       </c>
       <c r="AD7" t="n">
-        <v>117116.2239635589</v>
+        <v>152407.3603617102</v>
       </c>
       <c r="AE7" t="n">
-        <v>160243.5844300188</v>
+        <v>208530.474185</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.828275313529518e-06</v>
+        <v>5.391129242100373e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.559895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>144950.1616353452</v>
+        <v>188628.6184032018</v>
       </c>
     </row>
     <row r="8">
@@ -9929,28 +9929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.2665040996975</v>
+        <v>151.5576404978487</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.0809602252894</v>
+        <v>207.3678499802706</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.8984966529615</v>
+        <v>187.5769534208181</v>
       </c>
       <c r="AD8" t="n">
-        <v>116266.5040996975</v>
+        <v>151557.6404978487</v>
       </c>
       <c r="AE8" t="n">
-        <v>159080.9602252894</v>
+        <v>207367.8499802706</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.84727858059814e-06</v>
+        <v>5.427352401952956e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>143898.4966529615</v>
+        <v>187576.9534208181</v>
       </c>
     </row>
     <row r="9">
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.5870179228537</v>
+        <v>150.7075621204127</v>
       </c>
       <c r="AB9" t="n">
-        <v>158.1512572613178</v>
+        <v>206.2047352414521</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.0575232350247</v>
+        <v>186.5248447202303</v>
       </c>
       <c r="AD9" t="n">
-        <v>115587.0179228537</v>
+        <v>150707.5621204127</v>
       </c>
       <c r="AE9" t="n">
-        <v>158151.2572613178</v>
+        <v>206204.7352414521</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.863022075043809e-06</v>
+        <v>5.457361932097662e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>143057.5232350247</v>
+        <v>186524.8447202303</v>
       </c>
     </row>
     <row r="10">
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.02483059771</v>
+        <v>150.145374795269</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.3820477611022</v>
+        <v>205.4355257412365</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.3617260099171</v>
+        <v>185.8290474951227</v>
       </c>
       <c r="AD10" t="n">
-        <v>115024.83059771</v>
+        <v>150145.374795269</v>
       </c>
       <c r="AE10" t="n">
-        <v>157382.0477611022</v>
+        <v>205435.5257412365</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.877920443253898e-06</v>
+        <v>5.485760521206993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>142361.7260099171</v>
+        <v>185829.0474951227</v>
       </c>
     </row>
     <row r="11">
@@ -10247,28 +10247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.151788536661</v>
+        <v>149.27233273422</v>
       </c>
       <c r="AB11" t="n">
-        <v>156.1875130972781</v>
+        <v>204.2409910774125</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.2811960578682</v>
+        <v>184.7485175430737</v>
       </c>
       <c r="AD11" t="n">
-        <v>114151.788536661</v>
+        <v>149272.33273422</v>
       </c>
       <c r="AE11" t="n">
-        <v>156187.5130972781</v>
+        <v>204240.9910774125</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.898831280968545e-06</v>
+        <v>5.525619805110851e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>141281.1960578682</v>
+        <v>184748.5175430737</v>
       </c>
     </row>
     <row r="12">
@@ -10353,28 +10353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.8266354668894</v>
+        <v>148.9471796644484</v>
       </c>
       <c r="AB12" t="n">
-        <v>155.7426243224758</v>
+        <v>203.7961023026102</v>
       </c>
       <c r="AC12" t="n">
-        <v>140.8787668433275</v>
+        <v>184.3460883285331</v>
       </c>
       <c r="AD12" t="n">
-        <v>113826.6354668894</v>
+        <v>148947.1796644484</v>
       </c>
       <c r="AE12" t="n">
-        <v>155742.6243224758</v>
+        <v>203796.1023026102</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.899700553667999e-06</v>
+        <v>5.527276773032952e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>140878.7668433275</v>
+        <v>184346.0883285331</v>
       </c>
     </row>
     <row r="13">
@@ -10459,28 +10459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>113.1591288431052</v>
+        <v>148.2796730406642</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.8293123115008</v>
+        <v>202.8827902916351</v>
       </c>
       <c r="AC13" t="n">
-        <v>140.0526200488382</v>
+        <v>183.5199415340438</v>
       </c>
       <c r="AD13" t="n">
-        <v>113159.1288431052</v>
+        <v>148279.6730406642</v>
       </c>
       <c r="AE13" t="n">
-        <v>154829.3123115008</v>
+        <v>202882.7902916351</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.914574775414214e-06</v>
+        <v>5.555629335255557e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH13" t="n">
-        <v>140052.6200488382</v>
+        <v>183519.9415340438</v>
       </c>
     </row>
     <row r="14">
@@ -10565,28 +10565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.926331473572</v>
+        <v>148.0468756711311</v>
       </c>
       <c r="AB14" t="n">
-        <v>154.5107886802107</v>
+        <v>202.564266660345</v>
       </c>
       <c r="AC14" t="n">
-        <v>139.7644958658675</v>
+        <v>183.2318173510731</v>
       </c>
       <c r="AD14" t="n">
-        <v>112926.331473572</v>
+        <v>148046.8756711311</v>
       </c>
       <c r="AE14" t="n">
-        <v>154510.7886802107</v>
+        <v>202564.266660345</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.915757952144027e-06</v>
+        <v>5.557884652705083e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>139764.4958658675</v>
+        <v>183231.8173510731</v>
       </c>
     </row>
     <row r="15">
@@ -10671,28 +10671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>112.2270796430914</v>
+        <v>147.3476238406504</v>
       </c>
       <c r="AB15" t="n">
-        <v>153.5540414769339</v>
+        <v>201.6075194570683</v>
       </c>
       <c r="AC15" t="n">
-        <v>138.8990592728681</v>
+        <v>182.3663807580737</v>
       </c>
       <c r="AD15" t="n">
-        <v>112227.0796430914</v>
+        <v>147347.6238406504</v>
       </c>
       <c r="AE15" t="n">
-        <v>153554.0414769339</v>
+        <v>201607.5194570683</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.918679674272748e-06</v>
+        <v>5.56345390599881e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>138899.0592728681</v>
+        <v>182366.3807580737</v>
       </c>
     </row>
     <row r="16">
@@ -10777,28 +10777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>111.4447318011342</v>
+        <v>146.5652759986932</v>
       </c>
       <c r="AB16" t="n">
-        <v>152.4835986448178</v>
+        <v>200.5370766249522</v>
       </c>
       <c r="AC16" t="n">
-        <v>137.9307780022729</v>
+        <v>181.3980994874785</v>
       </c>
       <c r="AD16" t="n">
-        <v>111444.7318011342</v>
+        <v>146565.2759986933</v>
       </c>
       <c r="AE16" t="n">
-        <v>152483.5986448178</v>
+        <v>200537.0766249522</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.935944395942461e-06</v>
+        <v>5.596363130007191e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH16" t="n">
-        <v>137930.7780022729</v>
+        <v>181398.0994874785</v>
       </c>
     </row>
     <row r="17">
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>111.3057220805474</v>
+        <v>146.4262662781065</v>
       </c>
       <c r="AB17" t="n">
-        <v>152.293399412435</v>
+        <v>200.3468773925694</v>
       </c>
       <c r="AC17" t="n">
-        <v>137.7587311176823</v>
+        <v>181.2260526028879</v>
       </c>
       <c r="AD17" t="n">
-        <v>111305.7220805474</v>
+        <v>146426.2662781065</v>
       </c>
       <c r="AE17" t="n">
-        <v>152293.399412435</v>
+        <v>200346.8773925694</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.937320744383264e-06</v>
+        <v>5.598986662550517e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH17" t="n">
-        <v>137758.7311176823</v>
+        <v>181226.0526028879</v>
       </c>
     </row>
     <row r="18">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>111.0246950752674</v>
+        <v>146.1452392728265</v>
       </c>
       <c r="AB18" t="n">
-        <v>151.9088858657746</v>
+        <v>199.962363845909</v>
       </c>
       <c r="AC18" t="n">
-        <v>137.410915004247</v>
+        <v>180.8782364894525</v>
       </c>
       <c r="AD18" t="n">
-        <v>111024.6950752674</v>
+        <v>146145.2392728265</v>
       </c>
       <c r="AE18" t="n">
-        <v>151908.8858657746</v>
+        <v>199962.363845909</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>5.596915452647891e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH18" t="n">
-        <v>137410.915004247</v>
+        <v>180878.2364894525</v>
       </c>
     </row>
     <row r="19">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>111.0112693010543</v>
+        <v>146.1318134986134</v>
       </c>
       <c r="AB19" t="n">
-        <v>151.8905161291929</v>
+        <v>199.9439941093273</v>
       </c>
       <c r="AC19" t="n">
-        <v>137.3942984495425</v>
+        <v>180.8616199347481</v>
       </c>
       <c r="AD19" t="n">
-        <v>111011.2693010543</v>
+        <v>146131.8134986134</v>
       </c>
       <c r="AE19" t="n">
-        <v>151890.516129193</v>
+        <v>199943.9941093273</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>5.596915452647891e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH19" t="n">
-        <v>137394.2984495425</v>
+        <v>180861.6199347481</v>
       </c>
     </row>
   </sheetData>
@@ -11392,28 +11392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.62731511176912</v>
+        <v>131.0176425853413</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.3144877828071</v>
+        <v>179.2641186756379</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.3048243874377</v>
+        <v>162.1554027880559</v>
       </c>
       <c r="AD2" t="n">
-        <v>99627.31511176912</v>
+        <v>131017.6425853413</v>
       </c>
       <c r="AE2" t="n">
-        <v>136314.4877828071</v>
+        <v>179264.1186756379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.987678352548572e-06</v>
+        <v>6.362973006736945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123304.8243874377</v>
+        <v>162155.4027880559</v>
       </c>
     </row>
     <row r="3">
@@ -11498,28 +11498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.86508666851957</v>
+        <v>125.0848219414996</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.4303526151795</v>
+        <v>171.1465717331634</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.1731400147527</v>
+        <v>154.8125831327199</v>
       </c>
       <c r="AD3" t="n">
-        <v>93865.08666851957</v>
+        <v>125084.8219414996</v>
       </c>
       <c r="AE3" t="n">
-        <v>128430.3526151795</v>
+        <v>171146.5717331634</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265497277499001e-06</v>
+        <v>6.954654610853503e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>116173.1400147527</v>
+        <v>154812.5831327199</v>
       </c>
     </row>
     <row r="4">
@@ -11604,28 +11604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.84695708222314</v>
+        <v>112.7739315731557</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.6690586816164</v>
+        <v>154.302268413052</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.6753800987077</v>
+        <v>139.5758764803464</v>
       </c>
       <c r="AD4" t="n">
-        <v>91846.95708222315</v>
+        <v>112773.9315731557</v>
       </c>
       <c r="AE4" t="n">
-        <v>125669.0586816164</v>
+        <v>154302.268413052</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.351690929028089e-06</v>
+        <v>7.138224531478939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>113675.3800987077</v>
+        <v>139575.8764803464</v>
       </c>
     </row>
     <row r="5">
@@ -11710,28 +11710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.39221085227028</v>
+        <v>111.3191853432028</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.6786107109217</v>
+        <v>152.3118204423573</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.8748976887242</v>
+        <v>137.7753940703629</v>
       </c>
       <c r="AD5" t="n">
-        <v>90392.21085227028</v>
+        <v>111319.1853432028</v>
       </c>
       <c r="AE5" t="n">
-        <v>123678.6107109217</v>
+        <v>152311.8204423573</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400809724507153e-06</v>
+        <v>7.242834711316442e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>111874.8976887242</v>
+        <v>137775.3940703629</v>
       </c>
     </row>
     <row r="6">
@@ -11816,28 +11816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.32523435864211</v>
+        <v>110.2522088495746</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.2187264006597</v>
+        <v>150.8519361320952</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.5543426880726</v>
+        <v>136.4548390697113</v>
       </c>
       <c r="AD6" t="n">
-        <v>89325.2343586421</v>
+        <v>110252.2088495746</v>
       </c>
       <c r="AE6" t="n">
-        <v>122218.7264006597</v>
+        <v>150851.9361320952</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.43537879450147e-06</v>
+        <v>7.316457783577284e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>110554.3426880726</v>
+        <v>136454.8390697113</v>
       </c>
     </row>
     <row r="7">
@@ -11922,28 +11922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.46943786925193</v>
+        <v>110.3964123601845</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.4160320056858</v>
+        <v>151.0492417371214</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.7328177230753</v>
+        <v>136.633314104714</v>
       </c>
       <c r="AD7" t="n">
-        <v>89469.43786925194</v>
+        <v>110396.4123601845</v>
       </c>
       <c r="AE7" t="n">
-        <v>122416.0320056858</v>
+        <v>151049.2417371214</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.432603569084935e-06</v>
+        <v>7.3105472797247e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>110732.8177230753</v>
+        <v>136633.314104714</v>
       </c>
     </row>
   </sheetData>
@@ -12219,28 +12219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.2571082492277</v>
+        <v>158.0872450418077</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.3823014601323</v>
+        <v>216.3019429831326</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.0258151453957</v>
+        <v>195.6583891265681</v>
       </c>
       <c r="AD2" t="n">
-        <v>125257.1082492277</v>
+        <v>158087.2450418077</v>
       </c>
       <c r="AE2" t="n">
-        <v>171382.3014601323</v>
+        <v>216301.9429831326</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.652108910130643e-06</v>
+        <v>5.384698005587185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>155025.8151453957</v>
+        <v>195658.3891265681</v>
       </c>
     </row>
     <row r="3">
@@ -12325,28 +12325,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.5356010720088</v>
+        <v>138.4509892106094</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.3984652887834</v>
+        <v>189.434751464433</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.6172784261799</v>
+        <v>171.3553646580645</v>
       </c>
       <c r="AD3" t="n">
-        <v>105535.6010720088</v>
+        <v>138450.9892106094</v>
       </c>
       <c r="AE3" t="n">
-        <v>144398.4652887834</v>
+        <v>189434.751464433</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975448180302175e-06</v>
+        <v>6.041188512658744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.638020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130617.2784261799</v>
+        <v>171355.3646580645</v>
       </c>
     </row>
     <row r="4">
@@ -12431,28 +12431,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8289852247556</v>
+        <v>135.573781162764</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.6951540791096</v>
+        <v>185.4980284799124</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2674060407263</v>
+        <v>167.7943569899598</v>
       </c>
       <c r="AD4" t="n">
-        <v>102828.9852247556</v>
+        <v>135573.781162764</v>
       </c>
       <c r="AE4" t="n">
-        <v>140695.1540791096</v>
+        <v>185498.0284799124</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.083296674115767e-06</v>
+        <v>6.260158241739373e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>127267.4060407263</v>
+        <v>167794.3569899598</v>
       </c>
     </row>
     <row r="5">
@@ -12537,28 +12537,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.0782758583181</v>
+        <v>133.8230717963264</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.2997562881048</v>
+        <v>183.1026306889075</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.1006216529323</v>
+        <v>165.6275726021658</v>
       </c>
       <c r="AD5" t="n">
-        <v>101078.2758583181</v>
+        <v>133823.0717963264</v>
       </c>
       <c r="AE5" t="n">
-        <v>138299.7562881048</v>
+        <v>183102.6306889075</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.147840801388528e-06</v>
+        <v>6.391205135051488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.332031249999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>125100.6216529323</v>
+        <v>165627.5726021658</v>
       </c>
     </row>
     <row r="6">
@@ -12643,28 +12643,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>100.0027178094076</v>
+        <v>121.946399410359</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.828130315314</v>
+        <v>166.8524435686288</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.7694455975441</v>
+        <v>150.9282805333604</v>
       </c>
       <c r="AD6" t="n">
-        <v>100002.7178094076</v>
+        <v>121946.399410359</v>
       </c>
       <c r="AE6" t="n">
-        <v>136828.130315314</v>
+        <v>166852.4435686288</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.179210690721975e-06</v>
+        <v>6.454896855962369e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>123769.4455975441</v>
+        <v>150928.2805333604</v>
       </c>
     </row>
     <row r="7">
@@ -12749,28 +12749,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.8624432400642</v>
+        <v>120.8061248410156</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.2679563441755</v>
+        <v>165.2922695974902</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.3581724404926</v>
+        <v>149.5170073763089</v>
       </c>
       <c r="AD7" t="n">
-        <v>98862.4432400642</v>
+        <v>120806.1248410156</v>
       </c>
       <c r="AE7" t="n">
-        <v>135267.9563441755</v>
+        <v>165292.2695974903</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.212668469156497e-06</v>
+        <v>6.522827713597803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>122358.1724404926</v>
+        <v>149517.0073763089</v>
       </c>
     </row>
     <row r="8">
@@ -12855,28 +12855,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.85605775264193</v>
+        <v>119.7997393535934</v>
       </c>
       <c r="AB8" t="n">
-        <v>133.8909753216908</v>
+        <v>163.9152885750056</v>
       </c>
       <c r="AC8" t="n">
-        <v>121.1126085541885</v>
+        <v>148.2714434900048</v>
       </c>
       <c r="AD8" t="n">
-        <v>97856.05775264194</v>
+        <v>119799.7393535934</v>
       </c>
       <c r="AE8" t="n">
-        <v>133890.9753216908</v>
+        <v>163915.2885750056</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.231485247474834e-06</v>
+        <v>6.561032279140073e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>121112.6085541885</v>
+        <v>148271.4434900048</v>
       </c>
     </row>
     <row r="9">
@@ -12961,28 +12961,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.47444924168039</v>
+        <v>119.4181308426318</v>
       </c>
       <c r="AB9" t="n">
-        <v>133.3688417216142</v>
+        <v>163.3931549749289</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.6403066520839</v>
+        <v>147.7991415879002</v>
       </c>
       <c r="AD9" t="n">
-        <v>97474.44924168038</v>
+        <v>119418.1308426318</v>
       </c>
       <c r="AE9" t="n">
-        <v>133368.8417216142</v>
+        <v>163393.1549749289</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.229552016825689e-06</v>
+        <v>6.557107152543264e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>120640.3066520839</v>
+        <v>147799.1415879002</v>
       </c>
     </row>
     <row r="10">
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.10594239509935</v>
+        <v>119.0496239960508</v>
       </c>
       <c r="AB10" t="n">
-        <v>132.8646343967476</v>
+        <v>162.8889476500624</v>
       </c>
       <c r="AC10" t="n">
-        <v>120.184220166643</v>
+        <v>147.3430551024592</v>
       </c>
       <c r="AD10" t="n">
-        <v>97105.94239509935</v>
+        <v>119049.6239960508</v>
       </c>
       <c r="AE10" t="n">
-        <v>132864.6343967476</v>
+        <v>162888.9476500624</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.241641152485005e-06</v>
+        <v>6.581652277528641e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>120184.220166643</v>
+        <v>147343.0551024592</v>
       </c>
     </row>
   </sheetData>
@@ -13364,28 +13364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.99732048155781</v>
+        <v>119.1367853725379</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.7700601674939</v>
+        <v>163.0082056906604</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.148496530493</v>
+        <v>147.4509313230424</v>
       </c>
       <c r="AD2" t="n">
-        <v>88997.32048155781</v>
+        <v>119136.7853725379</v>
       </c>
       <c r="AE2" t="n">
-        <v>121770.0601674939</v>
+        <v>163008.2056906605</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.279643461337834e-06</v>
+        <v>7.303125395185115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.553385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110148.496530493</v>
+        <v>147450.9313230424</v>
       </c>
     </row>
     <row r="3">
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.85150283057963</v>
+        <v>104.9445689331174</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.0975695568621</v>
+        <v>143.5897890418549</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.0173804623475</v>
+        <v>129.8857811052737</v>
       </c>
       <c r="AD3" t="n">
-        <v>84851.50283057963</v>
+        <v>104944.5689331174</v>
       </c>
       <c r="AE3" t="n">
-        <v>116097.5695568621</v>
+        <v>143589.7890418549</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514061615721635e-06</v>
+        <v>7.825128837496617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105017.3804623475</v>
+        <v>129885.7811052737</v>
       </c>
     </row>
     <row r="4">
@@ -13576,28 +13576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.97331961411858</v>
+        <v>103.0663857166563</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.5277564205058</v>
+        <v>141.0199759054986</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.6928266849689</v>
+        <v>127.5612273278951</v>
       </c>
       <c r="AD4" t="n">
-        <v>82973.31961411858</v>
+        <v>103066.3857166563</v>
       </c>
       <c r="AE4" t="n">
-        <v>113527.7564205058</v>
+        <v>141019.9759054986</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.588273976402766e-06</v>
+        <v>7.990385269275309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>102692.8266849689</v>
+        <v>127561.2273278951</v>
       </c>
     </row>
     <row r="5">
@@ -13682,28 +13682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.22484732158371</v>
+        <v>103.3179134241214</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.8719077264787</v>
+        <v>141.3641272114715</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.0041326733192</v>
+        <v>127.8725333162454</v>
       </c>
       <c r="AD5" t="n">
-        <v>83224.84732158371</v>
+        <v>103317.9134241214</v>
       </c>
       <c r="AE5" t="n">
-        <v>113871.9077264787</v>
+        <v>141364.1272114715</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582789201631461e-06</v>
+        <v>7.978171747167985e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103004.1326733192</v>
+        <v>127872.5333162454</v>
       </c>
     </row>
   </sheetData>
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.7103536570488</v>
+        <v>223.2192749674155</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.4146576671739</v>
+        <v>305.4184597496689</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.4698201635797</v>
+        <v>276.2697506087513</v>
       </c>
       <c r="AD2" t="n">
-        <v>175710.3536570487</v>
+        <v>223219.2749674155</v>
       </c>
       <c r="AE2" t="n">
-        <v>240414.6576671739</v>
+        <v>305418.4597496689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.040712699523934e-06</v>
+        <v>3.858505430357069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>217469.8201635797</v>
+        <v>276269.7506087513</v>
       </c>
     </row>
     <row r="3">
@@ -14085,28 +14085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8277852019645</v>
+        <v>178.374224838719</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.4232768304136</v>
+        <v>244.0594837396356</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.7723535680659</v>
+        <v>220.7667891512323</v>
       </c>
       <c r="AD3" t="n">
-        <v>142827.7852019645</v>
+        <v>178374.2248387189</v>
       </c>
       <c r="AE3" t="n">
-        <v>195423.2768304136</v>
+        <v>244059.4837396356</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466682760080049e-06</v>
+        <v>4.663914144777638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.315104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>176772.3535680659</v>
+        <v>220766.7891512323</v>
       </c>
     </row>
     <row r="4">
@@ -14191,28 +14191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.43811751069</v>
+        <v>172.7763571119135</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.6299663172299</v>
+        <v>236.4002341553297</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.2498432161319</v>
+        <v>213.8385275974258</v>
       </c>
       <c r="AD4" t="n">
-        <v>125438.11751069</v>
+        <v>172776.3571119135</v>
       </c>
       <c r="AE4" t="n">
-        <v>171629.9663172299</v>
+        <v>236400.2341553297</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616529651782898e-06</v>
+        <v>4.947239203465444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.95703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>155249.8432161319</v>
+        <v>213838.5275974258</v>
       </c>
     </row>
     <row r="5">
@@ -14297,28 +14297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.7866864100913</v>
+        <v>158.4183773928663</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.002161312508</v>
+        <v>216.7550128743792</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.9682708294032</v>
+        <v>196.0682186632818</v>
       </c>
       <c r="AD5" t="n">
-        <v>122786.6864100914</v>
+        <v>158418.3773928664</v>
       </c>
       <c r="AE5" t="n">
-        <v>168002.161312508</v>
+        <v>216755.0128743792</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.695186108670036e-06</v>
+        <v>5.095959974450243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>151968.2708294032</v>
+        <v>196068.2186632818</v>
       </c>
     </row>
     <row r="6">
@@ -14403,28 +14403,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.0240407476401</v>
+        <v>156.6557317304151</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.590431754705</v>
+        <v>214.3432833165763</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.7867133557124</v>
+        <v>193.8866611895911</v>
       </c>
       <c r="AD6" t="n">
-        <v>121024.0407476401</v>
+        <v>156655.7317304151</v>
       </c>
       <c r="AE6" t="n">
-        <v>165590.431754705</v>
+        <v>214343.2833165763</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746060348810607e-06</v>
+        <v>5.192151139376826e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.670572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>149786.7133557124</v>
+        <v>193886.6611895911</v>
       </c>
     </row>
     <row r="7">
@@ -14509,28 +14509,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.6972799678413</v>
+        <v>155.3289709506163</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.7750991232306</v>
+        <v>212.5279506851018</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.14463352275</v>
+        <v>192.2445813566286</v>
       </c>
       <c r="AD7" t="n">
-        <v>119697.2799678413</v>
+        <v>155328.9709506163</v>
       </c>
       <c r="AE7" t="n">
-        <v>163775.0991232306</v>
+        <v>212527.9506851018</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.783773332094492e-06</v>
+        <v>5.263457478005377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>148144.63352275</v>
+        <v>192244.5813566286</v>
       </c>
     </row>
     <row r="8">
@@ -14615,28 +14615,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.039818731747</v>
+        <v>154.671509714522</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.8755316548641</v>
+        <v>211.6283832167354</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.3309195110133</v>
+        <v>191.4308673448919</v>
       </c>
       <c r="AD8" t="n">
-        <v>119039.818731747</v>
+        <v>154671.509714522</v>
       </c>
       <c r="AE8" t="n">
-        <v>162875.5316548641</v>
+        <v>211628.3832167354</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.798585728447744e-06</v>
+        <v>5.291464218875346e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.56640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>147330.9195110133</v>
+        <v>191430.8673448919</v>
       </c>
     </row>
     <row r="9">
@@ -14721,28 +14721,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.2520013790936</v>
+        <v>153.8836923618686</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.7976051969157</v>
+        <v>210.5504567587869</v>
       </c>
       <c r="AC9" t="n">
-        <v>146.3558688413318</v>
+        <v>190.4558166752105</v>
       </c>
       <c r="AD9" t="n">
-        <v>118252.0013790936</v>
+        <v>153883.6923618686</v>
       </c>
       <c r="AE9" t="n">
-        <v>161797.6051969157</v>
+        <v>210550.4567587869</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.81808831815356e-06</v>
+        <v>5.328339006935161e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>146355.8688413318</v>
+        <v>190455.8166752105</v>
       </c>
     </row>
     <row r="10">
@@ -14827,28 +14827,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.6288584005264</v>
+        <v>153.0899571827092</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.9449934825125</v>
+        <v>209.4644332695369</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.5846291923029</v>
+        <v>189.4734417435306</v>
       </c>
       <c r="AD10" t="n">
-        <v>117628.8584005264</v>
+        <v>153089.9571827092</v>
       </c>
       <c r="AE10" t="n">
-        <v>160944.9934825125</v>
+        <v>209464.4332695369</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.834503994887536e-06</v>
+        <v>5.359377172099619e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>145584.6291923029</v>
+        <v>189473.4417435306</v>
       </c>
     </row>
     <row r="11">
@@ -14933,28 +14933,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>116.7125588222669</v>
+        <v>152.1736576044498</v>
       </c>
       <c r="AB11" t="n">
-        <v>159.6912719752542</v>
+        <v>208.2107117622785</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.4505611060877</v>
+        <v>188.3393736573153</v>
       </c>
       <c r="AD11" t="n">
-        <v>116712.5588222669</v>
+        <v>152173.6576044498</v>
       </c>
       <c r="AE11" t="n">
-        <v>159691.2719752541</v>
+        <v>208210.7117622785</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.851876853938361e-06</v>
+        <v>5.392225142813025e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>144450.5611060877</v>
+        <v>188339.3736573153</v>
       </c>
     </row>
     <row r="12">
@@ -15039,28 +15039,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.5684157078739</v>
+        <v>152.0295144900567</v>
       </c>
       <c r="AB12" t="n">
-        <v>159.4940490069963</v>
+        <v>208.0134887940207</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.2721608211162</v>
+        <v>188.1609733723438</v>
       </c>
       <c r="AD12" t="n">
-        <v>116568.4157078739</v>
+        <v>152029.5144900567</v>
       </c>
       <c r="AE12" t="n">
-        <v>159494.0490069963</v>
+        <v>208013.4887940207</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.854317668846328e-06</v>
+        <v>5.396840146962842e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>144272.1608211162</v>
+        <v>188160.9733723438</v>
       </c>
     </row>
     <row r="13">
@@ -15145,28 +15145,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.1201380720643</v>
+        <v>151.5812368542472</v>
       </c>
       <c r="AB13" t="n">
-        <v>158.8806957690684</v>
+        <v>207.4001355560928</v>
       </c>
       <c r="AC13" t="n">
-        <v>143.7173451553693</v>
+        <v>187.6061577065969</v>
       </c>
       <c r="AD13" t="n">
-        <v>116120.1380720644</v>
+        <v>151581.2368542472</v>
       </c>
       <c r="AE13" t="n">
-        <v>158880.6957690684</v>
+        <v>207400.1355560928</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.851493981011621e-06</v>
+        <v>5.391501220593445e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>143717.3451553693</v>
+        <v>187606.1577065969</v>
       </c>
     </row>
     <row r="14">
@@ -15251,28 +15251,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>115.5376717025766</v>
+        <v>150.9987704847594</v>
       </c>
       <c r="AB14" t="n">
-        <v>158.083739585733</v>
+        <v>206.6031793727574</v>
       </c>
       <c r="AC14" t="n">
-        <v>142.9964493516361</v>
+        <v>186.8852619028637</v>
       </c>
       <c r="AD14" t="n">
-        <v>115537.6717025766</v>
+        <v>150998.7704847594</v>
       </c>
       <c r="AE14" t="n">
-        <v>158083.739585733</v>
+        <v>206603.1793727574</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.871259795854571e-06</v>
+        <v>5.428873705179221e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>142996.4493516361</v>
+        <v>186885.2619028637</v>
       </c>
     </row>
     <row r="15">
@@ -15357,28 +15357,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>115.2285349429968</v>
+        <v>150.6896337251796</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.6607650331249</v>
+        <v>206.1802048201492</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.6138428966802</v>
+        <v>186.5026554479079</v>
       </c>
       <c r="AD15" t="n">
-        <v>115228.5349429968</v>
+        <v>150689.6337251797</v>
       </c>
       <c r="AE15" t="n">
-        <v>157660.7650331249</v>
+        <v>206180.2048201492</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.871929823476366e-06</v>
+        <v>5.430140569063484e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>142613.8428966802</v>
+        <v>186502.6554479079</v>
       </c>
     </row>
     <row r="16">
@@ -15463,28 +15463,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>114.701989216186</v>
+        <v>150.1630879983688</v>
       </c>
       <c r="AB16" t="n">
-        <v>156.9403219401447</v>
+        <v>205.4597617271691</v>
       </c>
       <c r="AC16" t="n">
-        <v>141.9621578813456</v>
+        <v>185.8509704325732</v>
       </c>
       <c r="AD16" t="n">
-        <v>114701.989216186</v>
+        <v>150163.0879983688</v>
       </c>
       <c r="AE16" t="n">
-        <v>156940.3219401447</v>
+        <v>205459.761727169</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.870398331769406e-06</v>
+        <v>5.427244880185168e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH16" t="n">
-        <v>141962.1578813456</v>
+        <v>185850.9704325732</v>
       </c>
     </row>
     <row r="17">
@@ -15569,28 +15569,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>113.9921041260171</v>
+        <v>149.4532029081999</v>
       </c>
       <c r="AB17" t="n">
-        <v>155.9690258418562</v>
+        <v>204.4884656288806</v>
       </c>
       <c r="AC17" t="n">
-        <v>141.0835609194548</v>
+        <v>184.9723734706824</v>
       </c>
       <c r="AD17" t="n">
-        <v>113992.1041260171</v>
+        <v>149453.2029081999</v>
       </c>
       <c r="AE17" t="n">
-        <v>155969.0258418562</v>
+        <v>204488.4656288806</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.890714526444545e-06</v>
+        <v>5.465658002961588e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH17" t="n">
-        <v>141083.5609194548</v>
+        <v>184972.3734706824</v>
       </c>
     </row>
     <row r="18">
@@ -15675,28 +15675,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>113.8363847251736</v>
+        <v>149.2974835073565</v>
       </c>
       <c r="AB18" t="n">
-        <v>155.7559636877672</v>
+        <v>204.2754034747915</v>
       </c>
       <c r="AC18" t="n">
-        <v>140.8908331183174</v>
+        <v>184.779645669545</v>
       </c>
       <c r="AD18" t="n">
-        <v>113836.3847251736</v>
+        <v>149297.4835073565</v>
       </c>
       <c r="AE18" t="n">
-        <v>155755.9636877672</v>
+        <v>204275.4034747916</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.891217047160891e-06</v>
+        <v>5.466608150874786e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH18" t="n">
-        <v>140890.8331183174</v>
+        <v>184779.645669545</v>
       </c>
     </row>
     <row r="19">
@@ -15781,28 +15781,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>113.4855705609479</v>
+        <v>148.9466693431307</v>
       </c>
       <c r="AB19" t="n">
-        <v>155.2759642714452</v>
+        <v>203.7954040584696</v>
       </c>
       <c r="AC19" t="n">
-        <v>140.4566441726056</v>
+        <v>184.3454567238332</v>
       </c>
       <c r="AD19" t="n">
-        <v>113485.5705609479</v>
+        <v>148946.6693431308</v>
       </c>
       <c r="AE19" t="n">
-        <v>155275.9642714452</v>
+        <v>203795.4040584695</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.891504201855945e-06</v>
+        <v>5.46715109253947e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH19" t="n">
-        <v>140456.6441726056</v>
+        <v>184345.4567238332</v>
       </c>
     </row>
     <row r="20">
@@ -15887,28 +15887,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>112.8545500095338</v>
+        <v>148.3156487917167</v>
       </c>
       <c r="AB20" t="n">
-        <v>154.4125741143389</v>
+        <v>202.9320139013632</v>
       </c>
       <c r="AC20" t="n">
-        <v>139.6756547603175</v>
+        <v>183.5644673115452</v>
       </c>
       <c r="AD20" t="n">
-        <v>112854.5500095338</v>
+        <v>148315.6487917167</v>
       </c>
       <c r="AE20" t="n">
-        <v>154412.5741143389</v>
+        <v>202932.0139013632</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.895667944934242e-06</v>
+        <v>5.475023746677394e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>139675.6547603175</v>
+        <v>183564.4673115452</v>
       </c>
     </row>
     <row r="21">
@@ -15993,28 +15993,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>112.9403428171491</v>
+        <v>148.401441599332</v>
       </c>
       <c r="AB21" t="n">
-        <v>154.5299596186296</v>
+        <v>203.049399405654</v>
       </c>
       <c r="AC21" t="n">
-        <v>139.7818371568304</v>
+        <v>183.6706497080581</v>
       </c>
       <c r="AD21" t="n">
-        <v>112940.3428171491</v>
+        <v>148401.441599332</v>
       </c>
       <c r="AE21" t="n">
-        <v>154529.9596186297</v>
+        <v>203049.399405654</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.893346777815882e-06</v>
+        <v>5.470634968221195e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>139781.8371568304</v>
+        <v>183670.649708058</v>
       </c>
     </row>
   </sheetData>
@@ -16290,28 +16290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.10418247117114</v>
+        <v>112.3323572249749</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.7068087547869</v>
+        <v>153.6980869089859</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.8547905157677</v>
+        <v>139.0293572110542</v>
       </c>
       <c r="AD2" t="n">
-        <v>83104.18247117114</v>
+        <v>112332.3572249749</v>
       </c>
       <c r="AE2" t="n">
-        <v>113706.8087547869</v>
+        <v>153698.0869089859</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.455213951103206e-06</v>
+        <v>7.921308612161792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.397135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>102854.7905157677</v>
+        <v>139029.3572110542</v>
       </c>
     </row>
     <row r="3">
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.65536157086085</v>
+        <v>99.25462904900918</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.9879798477449</v>
+        <v>135.8045622699905</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.58632001669433</v>
+        <v>122.8435654498792</v>
       </c>
       <c r="AD3" t="n">
-        <v>79655.36157086084</v>
+        <v>99254.62904900918</v>
       </c>
       <c r="AE3" t="n">
-        <v>108987.9798477449</v>
+        <v>135804.5622699905</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.655908008137745e-06</v>
+        <v>8.381413133877386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>98586.32001669433</v>
+        <v>122843.5654498792</v>
       </c>
     </row>
     <row r="4">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.51478477945456</v>
+        <v>99.11405225760288</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.7956364799325</v>
+        <v>135.6122189021782</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.41233362995034</v>
+        <v>122.6695790631352</v>
       </c>
       <c r="AD4" t="n">
-        <v>79514.78477945455</v>
+        <v>99114.05225760287</v>
       </c>
       <c r="AE4" t="n">
-        <v>108795.6364799325</v>
+        <v>135612.2189021782</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.668394111001195e-06</v>
+        <v>8.410038358116539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98412.33362995034</v>
+        <v>122669.5790631352</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.326807404528</v>
+        <v>186.8226292165837</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.369572789495</v>
+        <v>255.6189633267204</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.9146521584202</v>
+        <v>231.2230482303609</v>
       </c>
       <c r="AD2" t="n">
-        <v>141326.807404528</v>
+        <v>186822.6292165837</v>
       </c>
       <c r="AE2" t="n">
-        <v>193369.572789495</v>
+        <v>255618.9633267204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.356526131822908e-06</v>
+        <v>4.618758651336863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>174914.6521584202</v>
+        <v>231223.0482303609</v>
       </c>
     </row>
     <row r="3">
@@ -16905,28 +16905,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.6376887112038</v>
+        <v>150.8235607111743</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.5888313862614</v>
+        <v>206.3634496308286</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3578973031321</v>
+        <v>186.6684116310418</v>
       </c>
       <c r="AD3" t="n">
-        <v>116637.6887112038</v>
+        <v>150823.5607111743</v>
       </c>
       <c r="AE3" t="n">
-        <v>159588.8313862614</v>
+        <v>206363.4496308286</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.729626598440464e-06</v>
+        <v>5.35003040968338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.930989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>144357.8973031321</v>
+        <v>186668.4116310418</v>
       </c>
     </row>
     <row r="4">
@@ -17011,28 +17011,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.835581451074</v>
+        <v>147.0214534510445</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.3866204958204</v>
+        <v>201.1612387403876</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6521781187243</v>
+        <v>181.962692446634</v>
       </c>
       <c r="AD4" t="n">
-        <v>112835.581451074</v>
+        <v>147021.4534510445</v>
       </c>
       <c r="AE4" t="n">
-        <v>154386.6204958204</v>
+        <v>201161.2387403876</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.861780341100493e-06</v>
+        <v>5.609049918941012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.657552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>139652.1781187243</v>
+        <v>181962.692446634</v>
       </c>
     </row>
     <row r="5">
@@ -17117,28 +17117,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.7586425948464</v>
+        <v>144.9445145948169</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.5448611246557</v>
+        <v>198.3194793692229</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.0816322735083</v>
+        <v>179.392146601418</v>
       </c>
       <c r="AD5" t="n">
-        <v>110758.6425948464</v>
+        <v>144944.5145948169</v>
       </c>
       <c r="AE5" t="n">
-        <v>151544.8611246557</v>
+        <v>198319.4793692229</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931837746847979e-06</v>
+        <v>5.746361466017348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.52734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>137081.6322735084</v>
+        <v>179392.146601418</v>
       </c>
     </row>
     <row r="6">
@@ -17223,28 +17223,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.2259803283712</v>
+        <v>143.2412601277495</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.4478049953783</v>
+        <v>195.9890114650987</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.1847162379718</v>
+        <v>177.2840952832304</v>
       </c>
       <c r="AD6" t="n">
-        <v>109225.9803283712</v>
+        <v>143241.2601277495</v>
       </c>
       <c r="AE6" t="n">
-        <v>149447.8049953783</v>
+        <v>195989.0114650987</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.98231589892953e-06</v>
+        <v>5.845297946492449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>135184.7162379718</v>
+        <v>177284.0952832304</v>
       </c>
     </row>
     <row r="7">
@@ -17329,28 +17329,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.5238660785684</v>
+        <v>142.5391458779467</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.4871413037039</v>
+        <v>195.0283477734243</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.3157369407306</v>
+        <v>176.4151159859892</v>
       </c>
       <c r="AD7" t="n">
-        <v>108523.8660785684</v>
+        <v>142539.1458779467</v>
       </c>
       <c r="AE7" t="n">
-        <v>148487.1413037039</v>
+        <v>195028.3477734243</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.99709363295439e-06</v>
+        <v>5.874262100953863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>134315.7369407306</v>
+        <v>176415.1159859892</v>
       </c>
     </row>
     <row r="8">
@@ -17435,28 +17435,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.701364721914</v>
+        <v>141.7166445212923</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.3617586613312</v>
+        <v>193.9029651310516</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.297759238261</v>
+        <v>175.3971382835196</v>
       </c>
       <c r="AD8" t="n">
-        <v>107701.364721914</v>
+        <v>141716.6445212923</v>
       </c>
       <c r="AE8" t="n">
-        <v>147361.7586613311</v>
+        <v>193902.9651310515</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.015254821234101e-06</v>
+        <v>5.909857778995668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>133297.759238261</v>
+        <v>175397.1382835196</v>
       </c>
     </row>
     <row r="9">
@@ -17541,28 +17541,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.0384162334461</v>
+        <v>141.0536960328244</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.4546832921867</v>
+        <v>192.9958897619071</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.4772538692591</v>
+        <v>174.5766329145177</v>
       </c>
       <c r="AD9" t="n">
-        <v>107038.4162334461</v>
+        <v>141053.6960328244</v>
       </c>
       <c r="AE9" t="n">
-        <v>146454.6832921867</v>
+        <v>192995.8897619071</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.030256460319944e-06</v>
+        <v>5.939260784282256e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>132477.2538692591</v>
+        <v>174576.6329145177</v>
       </c>
     </row>
     <row r="10">
@@ -17647,28 +17647,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.2197132630903</v>
+        <v>140.2349930624686</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.3344977695204</v>
+        <v>191.8757042392408</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.4639772806855</v>
+        <v>173.5633563259441</v>
       </c>
       <c r="AD10" t="n">
-        <v>106219.7132630903</v>
+        <v>140234.9930624686</v>
       </c>
       <c r="AE10" t="n">
-        <v>145334.4977695204</v>
+        <v>191875.7042392408</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.052248912976469e-06</v>
+        <v>5.982365687554798e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>131463.9772806855</v>
+        <v>173563.3563259441</v>
       </c>
     </row>
     <row r="11">
@@ -17753,28 +17753,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>105.6677836710536</v>
+        <v>139.6830634704319</v>
       </c>
       <c r="AB11" t="n">
-        <v>144.5793233522811</v>
+        <v>191.1205298220015</v>
       </c>
       <c r="AC11" t="n">
-        <v>130.7808756499333</v>
+        <v>172.8802546951919</v>
       </c>
       <c r="AD11" t="n">
-        <v>105667.7836710536</v>
+        <v>139683.0634704319</v>
       </c>
       <c r="AE11" t="n">
-        <v>144579.3233522811</v>
+        <v>191120.5298220015</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048193743538671e-06</v>
+        <v>5.974417611498888e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>130780.8756499333</v>
+        <v>172880.2546951919</v>
       </c>
     </row>
     <row r="12">
@@ -17859,28 +17859,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>105.1238057728486</v>
+        <v>127.9144766147134</v>
       </c>
       <c r="AB12" t="n">
-        <v>143.8350287933463</v>
+        <v>175.0182300926062</v>
       </c>
       <c r="AC12" t="n">
-        <v>130.1076155190791</v>
+        <v>158.3147358522454</v>
       </c>
       <c r="AD12" t="n">
-        <v>105123.8057728486</v>
+        <v>127914.4766147133</v>
       </c>
       <c r="AE12" t="n">
-        <v>143835.0287933463</v>
+        <v>175018.2300926062</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.067076403681548e-06</v>
+        <v>6.011427364421807e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>130107.6155190791</v>
+        <v>158314.7358522454</v>
       </c>
     </row>
     <row r="13">
@@ -17965,28 +17965,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>104.3755880667921</v>
+        <v>127.1662589086569</v>
       </c>
       <c r="AB13" t="n">
-        <v>142.8112843188848</v>
+        <v>173.9944856181447</v>
       </c>
       <c r="AC13" t="n">
-        <v>129.1815757804254</v>
+        <v>157.3886961135918</v>
       </c>
       <c r="AD13" t="n">
-        <v>104375.5880667921</v>
+        <v>127166.2589086569</v>
       </c>
       <c r="AE13" t="n">
-        <v>142811.2843188848</v>
+        <v>173994.4856181447</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.06886764416941e-06</v>
+        <v>6.01493817102319e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>129181.5757804255</v>
+        <v>157388.6961135918</v>
       </c>
     </row>
     <row r="14">
@@ -18071,28 +18071,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>103.696966372819</v>
+        <v>126.4876372146837</v>
       </c>
       <c r="AB14" t="n">
-        <v>141.8827641785151</v>
+        <v>173.065965477775</v>
       </c>
       <c r="AC14" t="n">
-        <v>128.3416722990661</v>
+        <v>156.5487926322324</v>
       </c>
       <c r="AD14" t="n">
-        <v>103696.966372819</v>
+        <v>126487.6372146837</v>
       </c>
       <c r="AE14" t="n">
-        <v>141882.7641785151</v>
+        <v>173065.965477775</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.085038565240385e-06</v>
+        <v>6.046632952841236e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>128341.6722990661</v>
+        <v>156548.7926322324</v>
       </c>
     </row>
   </sheetData>
@@ -18368,28 +18368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.7790273199523</v>
+        <v>198.7167486265166</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.0896905997982</v>
+        <v>271.893022234897</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.702885040874</v>
+        <v>245.9439337971315</v>
       </c>
       <c r="AD2" t="n">
-        <v>163779.0273199523</v>
+        <v>198716.7486265166</v>
       </c>
       <c r="AE2" t="n">
-        <v>224089.6905997983</v>
+        <v>271893.022234897</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.195407941289853e-06</v>
+        <v>4.221117613292055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>202702.885040874</v>
+        <v>245943.9337971315</v>
       </c>
     </row>
     <row r="3">
@@ -18474,28 +18474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.4731269235208</v>
+        <v>170.3255073755135</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.3603089092283</v>
+        <v>233.0468734221294</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.6697811818111</v>
+        <v>210.8052069061298</v>
       </c>
       <c r="AD3" t="n">
-        <v>135473.1269235208</v>
+        <v>170325.5073755135</v>
       </c>
       <c r="AE3" t="n">
-        <v>185360.3089092282</v>
+        <v>233046.8734221294</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592782506980268e-06</v>
+        <v>4.985150915150568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.119791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167669.7811818111</v>
+        <v>210805.2069061298</v>
       </c>
     </row>
     <row r="4">
@@ -18580,28 +18580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.2834900555391</v>
+        <v>154.2211218535523</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.2089335100964</v>
+        <v>211.0121426756469</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.6325019611148</v>
+        <v>190.8734399361457</v>
       </c>
       <c r="AD4" t="n">
-        <v>119283.4900555391</v>
+        <v>154221.1218535524</v>
       </c>
       <c r="AE4" t="n">
-        <v>163208.9335100965</v>
+        <v>211012.1426756469</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.728458303363095e-06</v>
+        <v>5.24601518690523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>147632.5019611148</v>
+        <v>190873.4399361457</v>
       </c>
     </row>
     <row r="5">
@@ -18686,28 +18686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.8030642114963</v>
+        <v>151.7406960095095</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.8151054416136</v>
+        <v>207.6183146071641</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.5625760802193</v>
+        <v>187.8035140552502</v>
       </c>
       <c r="AD5" t="n">
-        <v>116803.0642114963</v>
+        <v>151740.6960095095</v>
       </c>
       <c r="AE5" t="n">
-        <v>159815.1054416136</v>
+        <v>207618.3146071641</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.808630364862038e-06</v>
+        <v>5.400162256578439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>144562.5760802193</v>
+        <v>187803.5140552502</v>
       </c>
     </row>
     <row r="6">
@@ -18792,28 +18792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.1319775871454</v>
+        <v>150.0696093851586</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.5286509990391</v>
+        <v>205.3318601645896</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.4943376405844</v>
+        <v>185.7352756156153</v>
       </c>
       <c r="AD6" t="n">
-        <v>115131.9775871454</v>
+        <v>150069.6093851586</v>
       </c>
       <c r="AE6" t="n">
-        <v>157528.6509990391</v>
+        <v>205331.8601645896</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.860258344872607e-06</v>
+        <v>5.499427532822847e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>142494.3376405844</v>
+        <v>185735.2756156153</v>
       </c>
     </row>
     <row r="7">
@@ -18898,28 +18898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.9459065563845</v>
+        <v>148.7129461538055</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.905816288992</v>
+        <v>203.4756136796956</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.0263839976008</v>
+        <v>184.0561866899807</v>
       </c>
       <c r="AD7" t="n">
-        <v>113945.9065563845</v>
+        <v>148712.9461538055</v>
       </c>
       <c r="AE7" t="n">
-        <v>155905.816288992</v>
+        <v>203475.6136796956</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.894238233510347e-06</v>
+        <v>5.564760769406749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>141026.3839976008</v>
+        <v>184056.1866899807</v>
       </c>
     </row>
     <row r="8">
@@ -19004,28 +19004,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.2361266922935</v>
+        <v>148.0031662897145</v>
       </c>
       <c r="AB8" t="n">
-        <v>154.9346641656655</v>
+        <v>202.5044615563691</v>
       </c>
       <c r="AC8" t="n">
-        <v>140.1479172699037</v>
+        <v>183.1777199622836</v>
       </c>
       <c r="AD8" t="n">
-        <v>113236.1266922935</v>
+        <v>148003.1662897145</v>
       </c>
       <c r="AE8" t="n">
-        <v>154934.6641656655</v>
+        <v>202504.4615563691</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.912958860822962e-06</v>
+        <v>5.600754977223418e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.44921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>140147.9172699037</v>
+        <v>183177.7199622836</v>
       </c>
     </row>
     <row r="9">
@@ -19110,28 +19110,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.7014429974054</v>
+        <v>147.4684825948265</v>
       </c>
       <c r="AB9" t="n">
-        <v>154.2030863457402</v>
+        <v>201.7728837364438</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.486160210336</v>
+        <v>182.5159629027159</v>
       </c>
       <c r="AD9" t="n">
-        <v>112701.4429974054</v>
+        <v>147468.4825948265</v>
       </c>
       <c r="AE9" t="n">
-        <v>154203.0863457402</v>
+        <v>201772.8837364438</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.925683037199504e-06</v>
+        <v>5.62521979034881e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>139486.160210336</v>
+        <v>182515.9629027159</v>
       </c>
     </row>
     <row r="10">
@@ -19216,28 +19216,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.153496108034</v>
+        <v>146.9205357054551</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.453361237992</v>
+        <v>201.0231586286956</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.8079878146252</v>
+        <v>181.8377905070051</v>
       </c>
       <c r="AD10" t="n">
-        <v>112153.496108034</v>
+        <v>146920.5357054551</v>
       </c>
       <c r="AE10" t="n">
-        <v>153453.361237992</v>
+        <v>201023.1586286956</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.926950579673796e-06</v>
+        <v>5.62765689816973e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>138807.9878146252</v>
+        <v>181837.7905070051</v>
       </c>
     </row>
     <row r="11">
@@ -19322,28 +19322,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.5133440934256</v>
+        <v>146.2803836908467</v>
       </c>
       <c r="AB11" t="n">
-        <v>152.5774770100915</v>
+        <v>200.1472744007951</v>
       </c>
       <c r="AC11" t="n">
-        <v>138.015696748124</v>
+        <v>181.045499440504</v>
       </c>
       <c r="AD11" t="n">
-        <v>111513.3440934256</v>
+        <v>146280.3836908467</v>
       </c>
       <c r="AE11" t="n">
-        <v>152577.4770100915</v>
+        <v>200147.2744007951</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.947206883445648e-06</v>
+        <v>5.66660375584636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>138015.696748124</v>
+        <v>181045.4994405039</v>
       </c>
     </row>
     <row r="12">
@@ -19428,28 +19428,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.9843760893764</v>
+        <v>145.7514156867974</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.8537196505304</v>
+        <v>199.423517041234</v>
       </c>
       <c r="AC12" t="n">
-        <v>137.3610137751593</v>
+        <v>180.3908164675393</v>
       </c>
       <c r="AD12" t="n">
-        <v>110984.3760893764</v>
+        <v>145751.4156867974</v>
       </c>
       <c r="AE12" t="n">
-        <v>151853.7196505304</v>
+        <v>199423.517041234</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.945427448818277e-06</v>
+        <v>5.663182431405452e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>137361.0137751593</v>
+        <v>180390.8164675393</v>
       </c>
     </row>
     <row r="13">
@@ -19534,28 +19534,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>110.4254431167012</v>
+        <v>145.1924827141222</v>
       </c>
       <c r="AB13" t="n">
-        <v>151.0889628989341</v>
+        <v>198.6587602896377</v>
       </c>
       <c r="AC13" t="n">
-        <v>136.6692443345923</v>
+        <v>179.6990470269722</v>
       </c>
       <c r="AD13" t="n">
-        <v>110425.4431167012</v>
+        <v>145192.4827141222</v>
       </c>
       <c r="AE13" t="n">
-        <v>151088.9628989341</v>
+        <v>198658.7602896377</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.964830599001664e-06</v>
+        <v>5.700488928048771e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>136669.2443345923</v>
+        <v>179699.0470269722</v>
       </c>
     </row>
     <row r="14">
@@ -19640,28 +19640,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>109.8803860331852</v>
+        <v>144.6474256306063</v>
       </c>
       <c r="AB14" t="n">
-        <v>150.3431917510466</v>
+        <v>197.9129891417502</v>
       </c>
       <c r="AC14" t="n">
-        <v>135.9946485383625</v>
+        <v>179.0244512307424</v>
       </c>
       <c r="AD14" t="n">
-        <v>109880.3860331852</v>
+        <v>144647.4256306063</v>
       </c>
       <c r="AE14" t="n">
-        <v>150343.1917510466</v>
+        <v>197912.9891417501</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.967828824469699e-06</v>
+        <v>5.70625362539441e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>135994.6485383625</v>
+        <v>179024.4512307424</v>
       </c>
     </row>
     <row r="15">
@@ -19746,28 +19746,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>109.2271100714888</v>
+        <v>143.9941496689099</v>
       </c>
       <c r="AB15" t="n">
-        <v>149.4493507597525</v>
+        <v>197.0191481504561</v>
       </c>
       <c r="AC15" t="n">
-        <v>135.1861144767636</v>
+        <v>178.2159171691436</v>
       </c>
       <c r="AD15" t="n">
-        <v>109227.1100714888</v>
+        <v>143994.1496689099</v>
       </c>
       <c r="AE15" t="n">
-        <v>149449.3507597526</v>
+        <v>197019.1481504561</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.964416210115838e-06</v>
+        <v>5.699692181261163e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH15" t="n">
-        <v>135186.1144767636</v>
+        <v>178215.9171691436</v>
       </c>
     </row>
     <row r="16">
@@ -19852,28 +19852,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>108.861146469873</v>
+        <v>143.6281860672941</v>
       </c>
       <c r="AB16" t="n">
-        <v>148.9486232148474</v>
+        <v>196.518420605551</v>
       </c>
       <c r="AC16" t="n">
-        <v>134.7331756659686</v>
+        <v>177.7629783583485</v>
       </c>
       <c r="AD16" t="n">
-        <v>108861.146469873</v>
+        <v>143628.1860672941</v>
       </c>
       <c r="AE16" t="n">
-        <v>148948.6232148474</v>
+        <v>196518.420605551</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.98245431455768e-06</v>
+        <v>5.734374100251183e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>134733.1756659686</v>
+        <v>177762.9783583485</v>
       </c>
     </row>
     <row r="17">
@@ -19958,28 +19958,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>108.8067493875615</v>
+        <v>143.5737889849825</v>
       </c>
       <c r="AB17" t="n">
-        <v>148.8741947269989</v>
+        <v>196.4439921177025</v>
       </c>
       <c r="AC17" t="n">
-        <v>134.6658505285393</v>
+        <v>177.6956532209192</v>
       </c>
       <c r="AD17" t="n">
-        <v>108806.7493875615</v>
+        <v>143573.7889849825</v>
       </c>
       <c r="AE17" t="n">
-        <v>148874.1947269989</v>
+        <v>196443.9921177025</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.982259308023174e-06</v>
+        <v>5.733999160586425e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>134665.8505285393</v>
+        <v>177695.6532209192</v>
       </c>
     </row>
   </sheetData>
@@ -20255,28 +20255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.9709215714732</v>
+        <v>248.2570919829301</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.6090369883912</v>
+        <v>339.6763055808075</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.4961745109945</v>
+        <v>307.2580757149655</v>
       </c>
       <c r="AD2" t="n">
-        <v>199970.9215714732</v>
+        <v>248257.0919829301</v>
       </c>
       <c r="AE2" t="n">
-        <v>273609.0369883912</v>
+        <v>339676.3055808075</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907940787075727e-06</v>
+        <v>3.554348975835726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>247496.1745109945</v>
+        <v>307258.0757149655</v>
       </c>
     </row>
     <row r="3">
@@ -20361,28 +20361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.1232788558825</v>
+        <v>187.4871860285623</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.7735372190495</v>
+        <v>256.5282392750463</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.0393610354045</v>
+        <v>232.0455441583557</v>
       </c>
       <c r="AD3" t="n">
-        <v>151123.2788558825</v>
+        <v>187487.1860285623</v>
       </c>
       <c r="AE3" t="n">
-        <v>206773.5372190495</v>
+        <v>256528.2392750463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33356413880216e-06</v>
+        <v>4.347252998092771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>187039.3610354045</v>
+        <v>232045.5441583557</v>
       </c>
     </row>
     <row r="4">
@@ -20467,28 +20467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.7948573583078</v>
+        <v>179.9881723303953</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.7464676189342</v>
+        <v>246.2677579000841</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.9692608848405</v>
+        <v>222.7643087251406</v>
       </c>
       <c r="AD4" t="n">
-        <v>143794.8573583078</v>
+        <v>179988.1723303953</v>
       </c>
       <c r="AE4" t="n">
-        <v>196746.4676189342</v>
+        <v>246267.7579000841</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511224831388467e-06</v>
+        <v>4.678221393452801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.100260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>177969.2608848404</v>
+        <v>222764.3087251406</v>
       </c>
     </row>
     <row r="5">
@@ -20573,28 +20573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.5200260080827</v>
+        <v>164.7985923261908</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.8467694875675</v>
+        <v>225.4847044213666</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.0642006102142</v>
+        <v>203.9647607012265</v>
       </c>
       <c r="AD5" t="n">
-        <v>128520.0260080826</v>
+        <v>164798.5923261908</v>
       </c>
       <c r="AE5" t="n">
-        <v>175846.7694875674</v>
+        <v>225484.7044213666</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593573185785511e-06</v>
+        <v>4.831630131866271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.904947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>159064.2006102141</v>
+        <v>203964.7607012265</v>
       </c>
     </row>
     <row r="6">
@@ -20679,28 +20679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.7966491794068</v>
+        <v>163.0752154975149</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.4887692805546</v>
+        <v>223.1267042143538</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.9312446334838</v>
+        <v>201.8318047244962</v>
       </c>
       <c r="AD6" t="n">
-        <v>126796.6491794068</v>
+        <v>163075.2154975149</v>
       </c>
       <c r="AE6" t="n">
-        <v>173488.7692805546</v>
+        <v>223126.7042143538</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.642370467791073e-06</v>
+        <v>4.92253576714328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>156931.2446334838</v>
+        <v>201831.8047244961</v>
       </c>
     </row>
     <row r="7">
@@ -20785,28 +20785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.5161456422398</v>
+        <v>161.7947119603479</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.7367278491745</v>
+        <v>221.3746627829737</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.3464155773084</v>
+        <v>200.2469756683208</v>
       </c>
       <c r="AD7" t="n">
-        <v>125516.1456422398</v>
+        <v>161794.7119603479</v>
       </c>
       <c r="AE7" t="n">
-        <v>171736.7278491745</v>
+        <v>221374.6627829737</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.676439158410193e-06</v>
+        <v>4.986003153778339e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>155346.4155773084</v>
+        <v>200246.9756683208</v>
       </c>
     </row>
     <row r="8">
@@ -20891,28 +20891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.1350336297834</v>
+        <v>160.4135999478916</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.8470294633709</v>
+        <v>219.48496439717</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.637067353237</v>
+        <v>198.5376274442494</v>
       </c>
       <c r="AD8" t="n">
-        <v>124135.0336297834</v>
+        <v>160413.5999478915</v>
       </c>
       <c r="AE8" t="n">
-        <v>169847.0294633709</v>
+        <v>219484.9643971701</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.712601850041123e-06</v>
+        <v>5.053371505475911e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.64453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>153637.067353237</v>
+        <v>198537.6274442494</v>
       </c>
     </row>
     <row r="9">
@@ -20997,28 +20997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.4012968698146</v>
+        <v>159.6798631879227</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.8430984582008</v>
+        <v>218.481033392</v>
       </c>
       <c r="AC9" t="n">
-        <v>152.728950114174</v>
+        <v>197.6295102051864</v>
       </c>
       <c r="AD9" t="n">
-        <v>123401.2968698146</v>
+        <v>159679.8631879227</v>
       </c>
       <c r="AE9" t="n">
-        <v>168843.0984582008</v>
+        <v>218481.033392</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.730718488008473e-06</v>
+        <v>5.087121427926874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>152728.950114174</v>
+        <v>197629.5102051864</v>
       </c>
     </row>
     <row r="10">
@@ -21103,28 +21103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.2437098314888</v>
+        <v>159.522276149597</v>
       </c>
       <c r="AB10" t="n">
-        <v>168.6274809201142</v>
+        <v>218.2654158539133</v>
       </c>
       <c r="AC10" t="n">
-        <v>152.5339108113012</v>
+        <v>197.4344709023135</v>
       </c>
       <c r="AD10" t="n">
-        <v>123243.7098314888</v>
+        <v>159522.276149597</v>
       </c>
       <c r="AE10" t="n">
-        <v>168627.4809201141</v>
+        <v>218265.4158539133</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.727895115857717e-06</v>
+        <v>5.081861699752698e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>152533.9108113011</v>
+        <v>197434.4709023135</v>
       </c>
     </row>
     <row r="11">
@@ -21209,28 +21209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.5354356886357</v>
+        <v>158.8140020067439</v>
       </c>
       <c r="AB11" t="n">
-        <v>167.6583889910131</v>
+        <v>217.2963239248123</v>
       </c>
       <c r="AC11" t="n">
-        <v>151.6573076557841</v>
+        <v>196.5578677467965</v>
       </c>
       <c r="AD11" t="n">
-        <v>122535.4356886357</v>
+        <v>158814.0020067439</v>
       </c>
       <c r="AE11" t="n">
-        <v>167658.3889910131</v>
+        <v>217296.3239248123</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.748152811039389e-06</v>
+        <v>5.119600249402411e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>151657.3076557841</v>
+        <v>196557.8677467965</v>
       </c>
     </row>
     <row r="12">
@@ -21315,28 +21315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.5557783909549</v>
+        <v>157.834344709063</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.3179786568972</v>
+        <v>215.9559135906964</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.4448242026781</v>
+        <v>195.3453842936905</v>
       </c>
       <c r="AD12" t="n">
-        <v>121555.7783909549</v>
+        <v>157834.344709063</v>
       </c>
       <c r="AE12" t="n">
-        <v>166317.9786568972</v>
+        <v>215955.9135906963</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.768292865714781e-06</v>
+        <v>5.157119643711534e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>150444.8242026781</v>
+        <v>195345.3842936905</v>
       </c>
     </row>
     <row r="13">
@@ -21421,28 +21421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.6267386925604</v>
+        <v>157.9053050106685</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.4150696721013</v>
+        <v>216.0530046059005</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.5326489876593</v>
+        <v>195.4332090786717</v>
       </c>
       <c r="AD13" t="n">
-        <v>121626.7386925604</v>
+        <v>157905.3050106686</v>
       </c>
       <c r="AE13" t="n">
-        <v>166415.0696721014</v>
+        <v>216053.0046059005</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.765657718374075e-06</v>
+        <v>5.152210564082303e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>150532.6489876593</v>
+        <v>195433.2090786717</v>
       </c>
     </row>
     <row r="14">
@@ -21527,28 +21527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>121.0912048339063</v>
+        <v>157.3697711520144</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.6823286206047</v>
+        <v>215.3202635544039</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.8698397137088</v>
+        <v>194.7703998047212</v>
       </c>
       <c r="AD14" t="n">
-        <v>121091.2048339063</v>
+        <v>157369.7711520144</v>
       </c>
       <c r="AE14" t="n">
-        <v>165682.3286206048</v>
+        <v>215320.2635544039</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>5.152736536899721e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>149869.8397137088</v>
+        <v>194770.3998047212</v>
       </c>
     </row>
     <row r="15">
@@ -21633,28 +21633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>120.5651081087553</v>
+        <v>156.8436744268634</v>
       </c>
       <c r="AB15" t="n">
-        <v>164.9624998715041</v>
+        <v>214.6004348053032</v>
       </c>
       <c r="AC15" t="n">
-        <v>149.218710410136</v>
+        <v>194.1192705011484</v>
       </c>
       <c r="AD15" t="n">
-        <v>120565.1081087553</v>
+        <v>156843.6744268634</v>
       </c>
       <c r="AE15" t="n">
-        <v>164962.4998715041</v>
+        <v>214600.4348053032</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.78495076140424e-06</v>
+        <v>5.188152039939173e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>149218.710410136</v>
+        <v>194119.2705011484</v>
       </c>
     </row>
     <row r="16">
@@ -21739,28 +21739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>120.2836401521221</v>
+        <v>156.391614269638</v>
       </c>
       <c r="AB16" t="n">
-        <v>164.5773829957488</v>
+        <v>213.9819061547011</v>
       </c>
       <c r="AC16" t="n">
-        <v>148.8703485484878</v>
+        <v>193.5597733568491</v>
       </c>
       <c r="AD16" t="n">
-        <v>120283.6401521221</v>
+        <v>156391.614269638</v>
       </c>
       <c r="AE16" t="n">
-        <v>164577.3829957488</v>
+        <v>213981.9061547011</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.786691840897206e-06</v>
+        <v>5.191395538979914e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>148870.3485484878</v>
+        <v>193559.7733568492</v>
       </c>
     </row>
     <row r="17">
@@ -21845,28 +21845,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>119.7801481420987</v>
+        <v>155.8881222596146</v>
       </c>
       <c r="AB17" t="n">
-        <v>163.8884830151353</v>
+        <v>213.2930061740877</v>
       </c>
       <c r="AC17" t="n">
-        <v>148.2471962151467</v>
+        <v>192.936621023508</v>
       </c>
       <c r="AD17" t="n">
-        <v>119780.1481420987</v>
+        <v>155888.1222596146</v>
       </c>
       <c r="AE17" t="n">
-        <v>163888.4830151353</v>
+        <v>213293.0061740876</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.786856537606e-06</v>
+        <v>5.191702356456742e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>148247.1962151467</v>
+        <v>192936.621023508</v>
       </c>
     </row>
     <row r="18">
@@ -21951,28 +21951,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>118.9029117093231</v>
+        <v>155.0108858268391</v>
       </c>
       <c r="AB18" t="n">
-        <v>162.6882094268724</v>
+        <v>212.0927325858247</v>
       </c>
       <c r="AC18" t="n">
-        <v>147.1614750535527</v>
+        <v>191.850899861914</v>
       </c>
       <c r="AD18" t="n">
-        <v>118902.9117093231</v>
+        <v>155010.8858268391</v>
       </c>
       <c r="AE18" t="n">
-        <v>162688.2094268724</v>
+        <v>212092.7325858247</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.80579665911732e-06</v>
+        <v>5.226986366291839e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>147161.4750535527</v>
+        <v>191850.899861914</v>
       </c>
     </row>
     <row r="19">
@@ -22057,28 +22057,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>119.0705434912523</v>
+        <v>155.1785176087683</v>
       </c>
       <c r="AB19" t="n">
-        <v>162.9175706263001</v>
+        <v>212.3220937852524</v>
       </c>
       <c r="AC19" t="n">
-        <v>147.3689463420174</v>
+        <v>192.0583711503788</v>
       </c>
       <c r="AD19" t="n">
-        <v>119070.5434912523</v>
+        <v>155178.5176087682</v>
       </c>
       <c r="AE19" t="n">
-        <v>162917.5706263001</v>
+        <v>212322.0937852524</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.803185039877871e-06</v>
+        <v>5.222121117730727e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>147368.9463420174</v>
+        <v>192058.3711503788</v>
       </c>
     </row>
     <row r="20">
@@ -22163,28 +22163,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>118.7721693484426</v>
+        <v>154.8801434659586</v>
       </c>
       <c r="AB20" t="n">
-        <v>162.5093219607699</v>
+        <v>211.9138451197222</v>
       </c>
       <c r="AC20" t="n">
-        <v>146.9996603561448</v>
+        <v>191.6890851645061</v>
       </c>
       <c r="AD20" t="n">
-        <v>118772.1693484426</v>
+        <v>154880.1434659586</v>
       </c>
       <c r="AE20" t="n">
-        <v>162509.3219607699</v>
+        <v>211913.8451197222</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.80598488392737e-06</v>
+        <v>5.227337014836785e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>146999.6603561448</v>
+        <v>191689.0851645061</v>
       </c>
     </row>
     <row r="21">
@@ -22269,28 +22269,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>118.501057420835</v>
+        <v>154.6090315383509</v>
       </c>
       <c r="AB21" t="n">
-        <v>162.1383746608032</v>
+        <v>211.5428978197555</v>
       </c>
       <c r="AC21" t="n">
-        <v>146.6641157458589</v>
+        <v>191.3535405542203</v>
       </c>
       <c r="AD21" t="n">
-        <v>118501.057420835</v>
+        <v>154609.0315383509</v>
       </c>
       <c r="AE21" t="n">
-        <v>162138.3746608032</v>
+        <v>211542.8978197555</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.805231984687169e-06</v>
+        <v>5.225934420657005e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>146664.1157458589</v>
+        <v>191353.5405542203</v>
       </c>
     </row>
     <row r="22">
@@ -22375,28 +22375,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>117.9517853089721</v>
+        <v>154.0597594264881</v>
       </c>
       <c r="AB22" t="n">
-        <v>161.3868363251774</v>
+        <v>210.7913594841298</v>
       </c>
       <c r="AC22" t="n">
-        <v>145.9843031741944</v>
+        <v>190.6737279825558</v>
       </c>
       <c r="AD22" t="n">
-        <v>117951.7853089721</v>
+        <v>154059.759426488</v>
       </c>
       <c r="AE22" t="n">
-        <v>161386.8363251774</v>
+        <v>210791.3594841298</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.808384750255513e-06</v>
+        <v>5.231807783784834e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>145984.3031741944</v>
+        <v>190673.7279825557</v>
       </c>
     </row>
     <row r="23">
@@ -22481,28 +22481,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>117.3655937820706</v>
+        <v>153.4735678995865</v>
       </c>
       <c r="AB23" t="n">
-        <v>160.5847832171262</v>
+        <v>209.9893063760784</v>
       </c>
       <c r="AC23" t="n">
-        <v>145.2587968890867</v>
+        <v>189.948221697448</v>
       </c>
       <c r="AD23" t="n">
-        <v>117365.5937820706</v>
+        <v>153473.5678995865</v>
       </c>
       <c r="AE23" t="n">
-        <v>160584.7832171262</v>
+        <v>209989.3063760785</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.808855312280639e-06</v>
+        <v>5.232684405147197e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>145258.7968890867</v>
+        <v>189948.221697448</v>
       </c>
     </row>
     <row r="24">
@@ -22587,28 +22587,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>116.7579112871123</v>
+        <v>152.8658854046282</v>
       </c>
       <c r="AB24" t="n">
-        <v>159.7533252184651</v>
+        <v>209.1578483774174</v>
       </c>
       <c r="AC24" t="n">
-        <v>144.5066920748589</v>
+        <v>189.1961168832203</v>
       </c>
       <c r="AD24" t="n">
-        <v>116757.9112871123</v>
+        <v>152865.8854046282</v>
       </c>
       <c r="AE24" t="n">
-        <v>159753.3252184651</v>
+        <v>209157.8483774174</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.808949424685664e-06</v>
+        <v>5.23285972941967e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>144506.6920748589</v>
+        <v>189196.1168832203</v>
       </c>
     </row>
     <row r="25">
@@ -22693,28 +22693,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>116.1116688556166</v>
+        <v>152.2196429731326</v>
       </c>
       <c r="AB25" t="n">
-        <v>158.8691078134892</v>
+        <v>208.2736309724415</v>
       </c>
       <c r="AC25" t="n">
-        <v>143.7068631380067</v>
+        <v>188.3962879463681</v>
       </c>
       <c r="AD25" t="n">
-        <v>116111.6688556166</v>
+        <v>152219.6429731325</v>
       </c>
       <c r="AE25" t="n">
-        <v>158869.1078134892</v>
+        <v>208273.6309724415</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.829418872778643e-06</v>
+        <v>5.270992758682446e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>143706.8631380067</v>
+        <v>188396.2879463681</v>
       </c>
     </row>
   </sheetData>
@@ -22990,28 +22990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.5470267705591</v>
+        <v>163.9938180924574</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.6202013557486</v>
+        <v>224.3835768106397</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.5729400334331</v>
+        <v>202.9687231642247</v>
       </c>
       <c r="AD2" t="n">
-        <v>130547.0267705591</v>
+        <v>163993.8180924574</v>
       </c>
       <c r="AE2" t="n">
-        <v>178620.2013557486</v>
+        <v>224383.5768106397</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.547569680763324e-06</v>
+        <v>5.10659668667748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>161572.9400334331</v>
+        <v>202968.7231642247</v>
       </c>
     </row>
     <row r="3">
@@ -23096,28 +23096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.6897265621368</v>
+        <v>143.0511770294635</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.082323051456</v>
+        <v>195.7289313841495</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7586767813293</v>
+        <v>177.0488368801822</v>
       </c>
       <c r="AD3" t="n">
-        <v>109689.7265621368</v>
+        <v>143051.1770294635</v>
       </c>
       <c r="AE3" t="n">
-        <v>150082.323051456</v>
+        <v>195728.9313841495</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.873607488657509e-06</v>
+        <v>5.760138610219754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135758.6767813293</v>
+        <v>177048.8368801822</v>
       </c>
     </row>
     <row r="4">
@@ -23202,28 +23202,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.2857476517074</v>
+        <v>139.647198119034</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.4248489332579</v>
+        <v>191.0714572659514</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.5457054561645</v>
+        <v>172.8358655550174</v>
       </c>
       <c r="AD4" t="n">
-        <v>106285.7476517074</v>
+        <v>139647.198119034</v>
       </c>
       <c r="AE4" t="n">
-        <v>145424.8489332579</v>
+        <v>191071.4572659514</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.002327388300018e-06</v>
+        <v>6.018157308584439e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>131545.7054561645</v>
+        <v>172835.8655550174</v>
       </c>
     </row>
     <row r="5">
@@ -23308,28 +23308,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.5889542043836</v>
+        <v>137.779812471118</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.1032212813869</v>
+        <v>188.5164178392335</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.4456506889626</v>
+        <v>170.5246755051644</v>
       </c>
       <c r="AD5" t="n">
-        <v>104588.9542043836</v>
+        <v>137779.8124711181</v>
       </c>
       <c r="AE5" t="n">
-        <v>143103.2212813869</v>
+        <v>188516.4178392335</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.06201656462228e-06</v>
+        <v>6.137804104642416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>129445.6506889625</v>
+        <v>170524.6755051644</v>
       </c>
     </row>
     <row r="6">
@@ -23414,28 +23414,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.0640052009553</v>
+        <v>136.2548634676897</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.0167187788954</v>
+        <v>186.429915336742</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.5582810568835</v>
+        <v>168.6373058730853</v>
       </c>
       <c r="AD6" t="n">
-        <v>103064.0052009553</v>
+        <v>136254.8634676897</v>
       </c>
       <c r="AE6" t="n">
-        <v>141016.7187788954</v>
+        <v>186429.915336742</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.115215020278369e-06</v>
+        <v>6.244440268293236e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>127558.2810568835</v>
+        <v>168637.3058730853</v>
       </c>
     </row>
     <row r="7">
@@ -23520,28 +23520,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.2907819465886</v>
+        <v>135.4816402133231</v>
       </c>
       <c r="AB7" t="n">
-        <v>139.958760610069</v>
+        <v>185.3719571679156</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.6012929308359</v>
+        <v>167.6803177470377</v>
       </c>
       <c r="AD7" t="n">
-        <v>102290.7819465886</v>
+        <v>135481.6402133231</v>
       </c>
       <c r="AE7" t="n">
-        <v>139958.760610069</v>
+        <v>185371.9571679156</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133949021887404e-06</v>
+        <v>6.281992524966444e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>126601.2929308359</v>
+        <v>167680.3177470377</v>
       </c>
     </row>
     <row r="8">
@@ -23626,28 +23626,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.5928998652953</v>
+        <v>123.8339563520641</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.0038875580595</v>
+        <v>169.4350822494035</v>
       </c>
       <c r="AC8" t="n">
-        <v>125.7375516227372</v>
+        <v>153.264435803199</v>
       </c>
       <c r="AD8" t="n">
-        <v>101592.8998652953</v>
+        <v>123833.9563520641</v>
       </c>
       <c r="AE8" t="n">
-        <v>139003.8875580595</v>
+        <v>169435.0822494035</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.146650471347877e-06</v>
+        <v>6.307452546814175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>125737.5516227372</v>
+        <v>153264.435803199</v>
       </c>
     </row>
     <row r="9">
@@ -23732,28 +23732,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>100.6982523377827</v>
+        <v>122.9393088245515</v>
       </c>
       <c r="AB9" t="n">
-        <v>137.779791341854</v>
+        <v>168.2109860331981</v>
       </c>
       <c r="AC9" t="n">
-        <v>124.6302814313761</v>
+        <v>152.1571656118379</v>
       </c>
       <c r="AD9" t="n">
-        <v>100698.2523377827</v>
+        <v>122939.3088245515</v>
       </c>
       <c r="AE9" t="n">
-        <v>137779.791341854</v>
+        <v>168210.986033198</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.168744375419401e-06</v>
+        <v>6.351739719086382e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>124630.2814313761</v>
+        <v>152157.1656118379</v>
       </c>
     </row>
     <row r="10">
@@ -23838,28 +23838,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.85378034202522</v>
+        <v>122.094836828794</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.6243475017841</v>
+        <v>167.0555421931282</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.5851115297265</v>
+        <v>151.1119957101884</v>
       </c>
       <c r="AD10" t="n">
-        <v>99853.78034202522</v>
+        <v>122094.836828794</v>
       </c>
       <c r="AE10" t="n">
-        <v>136624.3475017842</v>
+        <v>167055.5421931282</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180504034038116e-06</v>
+        <v>6.375311923682879e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>123585.1115297265</v>
+        <v>151111.9957101883</v>
       </c>
     </row>
     <row r="11">
@@ -23944,28 +23944,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>99.64264474062151</v>
+        <v>121.8837012273903</v>
       </c>
       <c r="AB11" t="n">
-        <v>136.3354624572984</v>
+        <v>166.7666571486424</v>
       </c>
       <c r="AC11" t="n">
-        <v>123.3237972684337</v>
+        <v>150.8506814488955</v>
       </c>
       <c r="AD11" t="n">
-        <v>99642.6447406215</v>
+        <v>121883.7012273903</v>
       </c>
       <c r="AE11" t="n">
-        <v>136335.4624572984</v>
+        <v>166766.6571486424</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.181165833008e-06</v>
+        <v>6.37663849796753e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>123323.7972684337</v>
+        <v>150850.6814488955</v>
       </c>
     </row>
     <row r="12">
@@ -24050,28 +24050,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.85143618010964</v>
+        <v>122.0924926668785</v>
       </c>
       <c r="AB12" t="n">
-        <v>136.6211401160341</v>
+        <v>167.0523348073781</v>
       </c>
       <c r="AC12" t="n">
-        <v>123.5822102523709</v>
+        <v>151.1090944328327</v>
       </c>
       <c r="AD12" t="n">
-        <v>99851.43618010964</v>
+        <v>122092.4926668785</v>
       </c>
       <c r="AE12" t="n">
-        <v>136621.1401160341</v>
+        <v>167052.3348073782</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.179409520357153e-06</v>
+        <v>6.373117973904417e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH12" t="n">
-        <v>123582.2102523709</v>
+        <v>151109.0944328327</v>
       </c>
     </row>
   </sheetData>
@@ -24347,28 +24347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2316036621245</v>
+        <v>147.0820993367196</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6649637900177</v>
+        <v>201.2442171166759</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6176409301082</v>
+        <v>182.0377514831502</v>
       </c>
       <c r="AD2" t="n">
-        <v>115231.6036621245</v>
+        <v>147082.0993367196</v>
       </c>
       <c r="AE2" t="n">
-        <v>157664.9637900177</v>
+        <v>201244.217116676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.869179368738434e-06</v>
+        <v>6.002502671901842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>142617.6409301082</v>
+        <v>182037.7514831502</v>
       </c>
     </row>
     <row r="3">
@@ -24453,28 +24453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.79455282071874</v>
+        <v>129.5597076407422</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.8068215604275</v>
+        <v>177.2693077648881</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.0364863097895</v>
+        <v>160.3509738308928</v>
       </c>
       <c r="AD3" t="n">
-        <v>97794.55282071873</v>
+        <v>129559.7076407422</v>
       </c>
       <c r="AE3" t="n">
-        <v>133806.8215604275</v>
+        <v>177269.3077648881</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.16757275039465e-06</v>
+        <v>6.626760287227161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.44921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>121036.4863097895</v>
+        <v>160350.9738308928</v>
       </c>
     </row>
     <row r="4">
@@ -24559,28 +24559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.62743476884859</v>
+        <v>127.3925895888721</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.8416750353593</v>
+        <v>174.30416123982</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.3543292074637</v>
+        <v>157.6688167285669</v>
       </c>
       <c r="AD4" t="n">
-        <v>95627.43476884859</v>
+        <v>127392.5895888721</v>
       </c>
       <c r="AE4" t="n">
-        <v>130841.6750353593</v>
+        <v>174304.16123982</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.260293707889921e-06</v>
+        <v>6.820738328882806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>118354.3292074637</v>
+        <v>157668.8167285669</v>
       </c>
     </row>
     <row r="5">
@@ -24665,28 +24665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.27233814818445</v>
+        <v>115.5629256704793</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.9875720563239</v>
+        <v>158.118293178744</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.6771792144969</v>
+        <v>143.0277051982264</v>
       </c>
       <c r="AD5" t="n">
-        <v>94272.33814818444</v>
+        <v>115562.9256704793</v>
       </c>
       <c r="AE5" t="n">
-        <v>128987.5720563239</v>
+        <v>158118.293178744</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302822851676714e-06</v>
+        <v>6.909711957368839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>116677.179214497</v>
+        <v>143027.7051982264</v>
       </c>
     </row>
     <row r="6">
@@ -24771,28 +24771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.17341137605987</v>
+        <v>114.4639988983547</v>
       </c>
       <c r="AB6" t="n">
-        <v>127.4839719654763</v>
+        <v>156.6146930878963</v>
       </c>
       <c r="AC6" t="n">
-        <v>115.3170806060033</v>
+        <v>141.6676065897327</v>
       </c>
       <c r="AD6" t="n">
-        <v>93173.41137605987</v>
+        <v>114463.9988983547</v>
       </c>
       <c r="AE6" t="n">
-        <v>127483.9719654763</v>
+        <v>156614.6930878963</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.336310575244494e-06</v>
+        <v>6.97977036932511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>115317.0806060033</v>
+        <v>141667.6065897327</v>
       </c>
     </row>
     <row r="7">
@@ -24877,28 +24877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.81087940336855</v>
+        <v>113.1014669256634</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.6196956097727</v>
+        <v>154.7504167321927</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.6307281691592</v>
+        <v>139.9812541528886</v>
       </c>
       <c r="AD7" t="n">
-        <v>91810.87940336854</v>
+        <v>113101.4669256634</v>
       </c>
       <c r="AE7" t="n">
-        <v>125619.6956097727</v>
+        <v>154750.4167321927</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369055894806021e-06</v>
+        <v>7.0482756256719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>113630.7281691592</v>
+        <v>139981.2541528886</v>
       </c>
     </row>
     <row r="8">
@@ -24983,28 +24983,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.97164053706021</v>
+        <v>113.2622280593551</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.8396560851702</v>
+        <v>154.9703772075902</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.8296959255013</v>
+        <v>140.1802219092307</v>
       </c>
       <c r="AD8" t="n">
-        <v>91971.64053706022</v>
+        <v>113262.2280593551</v>
       </c>
       <c r="AE8" t="n">
-        <v>125839.6560851702</v>
+        <v>154970.3772075902</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.368207433084589e-06</v>
+        <v>7.046500590689635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>113829.6959255013</v>
+        <v>140180.2219092307</v>
       </c>
     </row>
   </sheetData>
@@ -46917,28 +46917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.32245277899065</v>
+        <v>125.1186083876722</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0561411050944</v>
+        <v>171.1927998393695</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7392041294901</v>
+        <v>154.8543992933514</v>
       </c>
       <c r="AD2" t="n">
-        <v>94322.45277899066</v>
+        <v>125118.6083876722</v>
       </c>
       <c r="AE2" t="n">
-        <v>129056.1411050944</v>
+        <v>171192.7998393695</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.130736591298962e-06</v>
+        <v>6.805769802897132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>116739.2041294901</v>
+        <v>154854.3992933514</v>
       </c>
     </row>
     <row r="3">
@@ -47023,28 +47023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.49173087249105</v>
+        <v>110.0225907868298</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.4465342762155</v>
+        <v>150.5377625686139</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.7604088997158</v>
+        <v>136.1706497901832</v>
       </c>
       <c r="AD3" t="n">
-        <v>89491.73087249104</v>
+        <v>110022.5907868298</v>
       </c>
       <c r="AE3" t="n">
-        <v>122446.5342762155</v>
+        <v>150537.7625686139</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.385350305353386e-06</v>
+        <v>7.359263294279019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>110760.4088997158</v>
+        <v>136170.6497901832</v>
       </c>
     </row>
     <row r="4">
@@ -47129,28 +47129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.65060426758549</v>
+        <v>108.1814641819243</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.9274236306117</v>
+        <v>148.0186519230102</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.4817186385337</v>
+        <v>133.8919595290011</v>
       </c>
       <c r="AD4" t="n">
-        <v>87650.6042675855</v>
+        <v>108181.4641819243</v>
       </c>
       <c r="AE4" t="n">
-        <v>119927.4236306117</v>
+        <v>148018.6519230102</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.461188603248515e-06</v>
+        <v>7.524124815734465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>108481.7186385337</v>
+        <v>133891.9595290011</v>
       </c>
     </row>
     <row r="5">
@@ -47235,28 +47235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.37132392900567</v>
+        <v>106.9021838433444</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.1770558335023</v>
+        <v>146.2682841259008</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.8984034873232</v>
+        <v>132.3086443777906</v>
       </c>
       <c r="AD5" t="n">
-        <v>86371.32392900567</v>
+        <v>106902.1838433444</v>
       </c>
       <c r="AE5" t="n">
-        <v>118177.0558335023</v>
+        <v>146268.2841259008</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.504415061650947e-06</v>
+        <v>7.618092901743067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>106898.4034873232</v>
+        <v>132308.6443777906</v>
       </c>
     </row>
     <row r="6">
@@ -47341,28 +47341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.39004422887226</v>
+        <v>106.920904143211</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.2026697736611</v>
+        <v>146.2938980660596</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.9215728689826</v>
+        <v>132.33181375945</v>
       </c>
       <c r="AD6" t="n">
-        <v>86390.04422887226</v>
+        <v>106920.904143211</v>
       </c>
       <c r="AE6" t="n">
-        <v>118202.6697736611</v>
+        <v>146293.8980660596</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.50617045082465e-06</v>
+        <v>7.621908864626665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.091145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>106921.5728689826</v>
+        <v>132331.81375945</v>
       </c>
     </row>
   </sheetData>
@@ -47638,28 +47638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.4257411272481</v>
+        <v>95.45058531788003</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5690706759979</v>
+        <v>130.5997018144971</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.58914533431953</v>
+        <v>118.1354495711889</v>
       </c>
       <c r="AD2" t="n">
-        <v>76425.7411272481</v>
+        <v>95450.58531788003</v>
       </c>
       <c r="AE2" t="n">
-        <v>104569.0706759979</v>
+        <v>130599.7018144972</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667338494049242e-06</v>
+        <v>8.722863492462199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>94589.14533431953</v>
+        <v>118135.4495711889</v>
       </c>
     </row>
     <row r="3">
@@ -47744,28 +47744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.18620910353425</v>
+        <v>94.21105329416618</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.87308827686</v>
+        <v>128.9037194153593</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.05502511502857</v>
+        <v>116.601329351898</v>
       </c>
       <c r="AD3" t="n">
-        <v>75186.20910353426</v>
+        <v>94211.05329416618</v>
       </c>
       <c r="AE3" t="n">
-        <v>102873.08827686</v>
+        <v>128903.7194153593</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.75771488417841e-06</v>
+        <v>8.937826173250305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>93055.02511502858</v>
+        <v>116601.329351898</v>
       </c>
     </row>
   </sheetData>
@@ -48041,28 +48041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.4694257580295</v>
+        <v>193.0392841700409</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.8248594996904</v>
+        <v>264.1248648934965</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.1313992247036</v>
+        <v>238.9171584897144</v>
       </c>
       <c r="AD2" t="n">
-        <v>158469.4257580295</v>
+        <v>193039.2841700409</v>
       </c>
       <c r="AE2" t="n">
-        <v>216824.8594996904</v>
+        <v>264124.8648934965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269172373383646e-06</v>
+        <v>4.403506428458312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.063802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196131.3992247036</v>
+        <v>238917.1584897144</v>
       </c>
     </row>
     <row r="3">
@@ -48147,28 +48147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.7852185435621</v>
+        <v>166.2697361010017</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.3143499647363</v>
+        <v>227.4975882363447</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.105401476932</v>
+        <v>205.785537710004</v>
       </c>
       <c r="AD3" t="n">
-        <v>131785.2185435621</v>
+        <v>166269.7361010017</v>
       </c>
       <c r="AE3" t="n">
-        <v>180314.3499647363</v>
+        <v>227497.5882363447</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.659927642506746e-06</v>
+        <v>5.161797583295411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.028645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163105.401476932</v>
+        <v>205785.537710004</v>
       </c>
     </row>
     <row r="4">
@@ -48253,28 +48253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.9242931305579</v>
+        <v>150.4940620340181</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.6127320800304</v>
+        <v>205.9126150042881</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.4749555447235</v>
+        <v>186.2606040285077</v>
       </c>
       <c r="AD4" t="n">
-        <v>115924.2931305579</v>
+        <v>150494.0620340181</v>
       </c>
       <c r="AE4" t="n">
-        <v>158612.7320800304</v>
+        <v>205912.6150042881</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.797179446019932e-06</v>
+        <v>5.428145440415928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>143474.9555447235</v>
+        <v>186260.6040285077</v>
       </c>
     </row>
     <row r="5">
@@ -48359,28 +48359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.7773730846198</v>
+        <v>148.34714198808</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.6752213577516</v>
+        <v>202.9751042820093</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.8177967229559</v>
+        <v>183.6034452067401</v>
       </c>
       <c r="AD5" t="n">
-        <v>113777.3730846198</v>
+        <v>148347.14198808</v>
       </c>
       <c r="AE5" t="n">
-        <v>155675.2213577516</v>
+        <v>202975.1042820093</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.872341734114238e-06</v>
+        <v>5.574003737777171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.579427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>140817.7967229559</v>
+        <v>183603.4452067401</v>
       </c>
     </row>
     <row r="6">
@@ -48465,28 +48465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.4861306787196</v>
+        <v>147.0558995821798</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.9084865324054</v>
+        <v>201.2083694566631</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.2196765897122</v>
+        <v>182.0053250734964</v>
       </c>
       <c r="AD6" t="n">
-        <v>112486.1306787196</v>
+        <v>147055.8995821798</v>
       </c>
       <c r="AE6" t="n">
-        <v>153908.4865324054</v>
+        <v>201208.3694566631</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.909959806897762e-06</v>
+        <v>5.647004549558365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>139219.6765897122</v>
+        <v>182005.3250734964</v>
       </c>
     </row>
     <row r="7">
@@ -48571,28 +48571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.329234598661</v>
+        <v>145.728411301529</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.3255702770171</v>
+        <v>199.3920414264279</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.7878316401007</v>
+        <v>180.3623448412339</v>
       </c>
       <c r="AD7" t="n">
-        <v>111329.234598661</v>
+        <v>145728.411301529</v>
       </c>
       <c r="AE7" t="n">
-        <v>152325.570277017</v>
+        <v>199392.0414264279</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.943885006044161e-06</v>
+        <v>5.712839051282503e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>137787.8316401007</v>
+        <v>180362.3448412339</v>
       </c>
     </row>
     <row r="8">
@@ -48677,28 +48677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.5320363293951</v>
+        <v>144.9312130322632</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.2348084351026</v>
+        <v>198.3012795845134</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.8011705774844</v>
+        <v>179.3756837786176</v>
       </c>
       <c r="AD8" t="n">
-        <v>110532.0363293951</v>
+        <v>144931.2130322632</v>
       </c>
       <c r="AE8" t="n">
-        <v>151234.8084351026</v>
+        <v>198301.2795845134</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.963580332108832e-06</v>
+        <v>5.751059371586791e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>136801.1705774844</v>
+        <v>179375.6837786176</v>
       </c>
     </row>
     <row r="9">
@@ -48783,28 +48783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.9149468769331</v>
+        <v>144.3141235798011</v>
       </c>
       <c r="AB9" t="n">
-        <v>150.3904794221792</v>
+        <v>197.45695057159</v>
       </c>
       <c r="AC9" t="n">
-        <v>136.0374231405309</v>
+        <v>178.6119363416641</v>
       </c>
       <c r="AD9" t="n">
-        <v>109914.9468769331</v>
+        <v>144314.1235798011</v>
       </c>
       <c r="AE9" t="n">
-        <v>150390.4794221792</v>
+        <v>197456.95057159</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.978524160760403e-06</v>
+        <v>5.780059039617671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>136037.4231405309</v>
+        <v>178611.9363416641</v>
       </c>
     </row>
     <row r="10">
@@ -48889,28 +48889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>108.9567249123923</v>
+        <v>143.3559016152603</v>
       </c>
       <c r="AB10" t="n">
-        <v>149.0793978565255</v>
+        <v>196.1458690059364</v>
       </c>
       <c r="AC10" t="n">
-        <v>134.8514693593883</v>
+        <v>177.4259825605215</v>
       </c>
       <c r="AD10" t="n">
-        <v>108956.7249123923</v>
+        <v>143355.9016152603</v>
       </c>
       <c r="AE10" t="n">
-        <v>149079.3978565255</v>
+        <v>196145.8690059364</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>5.815651712901041e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>134851.4693593883</v>
+        <v>177425.9825605215</v>
       </c>
     </row>
     <row r="11">
@@ -48995,28 +48995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>108.7148602425507</v>
+        <v>143.1140369454188</v>
       </c>
       <c r="AB11" t="n">
-        <v>148.7484679449323</v>
+        <v>195.8149390943432</v>
       </c>
       <c r="AC11" t="n">
-        <v>134.5521229340944</v>
+        <v>177.1266361352276</v>
       </c>
       <c r="AD11" t="n">
-        <v>108714.8602425507</v>
+        <v>143114.0369454188</v>
       </c>
       <c r="AE11" t="n">
-        <v>148748.4679449323</v>
+        <v>195814.9390943432</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.996545384109578e-06</v>
+        <v>5.815030632696096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>134552.1229340944</v>
+        <v>177126.6361352276</v>
       </c>
     </row>
     <row r="12">
@@ -49101,28 +49101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>107.9570059183445</v>
+        <v>142.3561826212126</v>
       </c>
       <c r="AB12" t="n">
-        <v>147.7115382243807</v>
+        <v>194.7780093737916</v>
       </c>
       <c r="AC12" t="n">
-        <v>133.614156330732</v>
+        <v>176.1886695318652</v>
       </c>
       <c r="AD12" t="n">
-        <v>107957.0059183445</v>
+        <v>142356.1826212126</v>
       </c>
       <c r="AE12" t="n">
-        <v>147711.5382243808</v>
+        <v>194778.0093737916</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.013778794416166e-06</v>
+        <v>5.848473412962349e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>133614.156330732</v>
+        <v>176188.6695318652</v>
       </c>
     </row>
     <row r="13">
@@ -49207,28 +49207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>107.5880414975931</v>
+        <v>141.9872182004611</v>
       </c>
       <c r="AB13" t="n">
-        <v>147.2067048263475</v>
+        <v>194.2731759757584</v>
       </c>
       <c r="AC13" t="n">
-        <v>133.1575035236687</v>
+        <v>175.7320167248019</v>
       </c>
       <c r="AD13" t="n">
-        <v>107588.0414975931</v>
+        <v>141987.2182004612</v>
       </c>
       <c r="AE13" t="n">
-        <v>147206.7048263475</v>
+        <v>194273.1759757584</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.015206705555855e-06</v>
+        <v>5.851244386184411e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>133157.5035236687</v>
+        <v>175732.0167248019</v>
       </c>
     </row>
     <row r="14">
@@ -49313,28 +49313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>106.8888503374403</v>
+        <v>141.2880270403084</v>
       </c>
       <c r="AB14" t="n">
-        <v>146.25004063489</v>
+        <v>193.3165117843008</v>
       </c>
       <c r="AC14" t="n">
-        <v>132.292142019957</v>
+        <v>174.8666552210902</v>
       </c>
       <c r="AD14" t="n">
-        <v>106888.8503374403</v>
+        <v>141288.0270403084</v>
       </c>
       <c r="AE14" t="n">
-        <v>146250.04063489</v>
+        <v>193316.5117843008</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.014591226616334e-06</v>
+        <v>5.850050001174901e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>132292.142019957</v>
+        <v>174866.6552210902</v>
       </c>
     </row>
     <row r="15">
@@ -49419,28 +49419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>106.360825706774</v>
+        <v>140.760002409642</v>
       </c>
       <c r="AB15" t="n">
-        <v>145.5275740404101</v>
+        <v>192.5940451898209</v>
       </c>
       <c r="AC15" t="n">
-        <v>131.6386266232657</v>
+        <v>174.2131398243989</v>
       </c>
       <c r="AD15" t="n">
-        <v>106360.825706774</v>
+        <v>140760.002409642</v>
       </c>
       <c r="AE15" t="n">
-        <v>145527.5740404101</v>
+        <v>192594.0451898209</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.03234163923212e-06</v>
+        <v>5.884496064849141e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>131638.6266232657</v>
+        <v>174213.1398243989</v>
       </c>
     </row>
     <row r="16">
@@ -49525,28 +49525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>106.534575383234</v>
+        <v>140.9337520861021</v>
       </c>
       <c r="AB16" t="n">
-        <v>145.7653060130373</v>
+        <v>192.8317771624482</v>
       </c>
       <c r="AC16" t="n">
-        <v>131.8536697900844</v>
+        <v>174.4281829912176</v>
       </c>
       <c r="AD16" t="n">
-        <v>106534.575383234</v>
+        <v>140933.7520861021</v>
       </c>
       <c r="AE16" t="n">
-        <v>145765.3060130373</v>
+        <v>192831.7771624482</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.032218543444216e-06</v>
+        <v>5.88425718784724e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>131853.6697900844</v>
+        <v>174428.1829912176</v>
       </c>
     </row>
   </sheetData>
@@ -49822,28 +49822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.9516607247488</v>
+        <v>229.898983541246</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.9542893442317</v>
+        <v>314.5579317083235</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.1944413788301</v>
+        <v>284.5369641910043</v>
       </c>
       <c r="AD2" t="n">
-        <v>181951.6607247488</v>
+        <v>229898.983541246</v>
       </c>
       <c r="AE2" t="n">
-        <v>248954.2893442317</v>
+        <v>314557.9317083235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.968553780752301e-06</v>
+        <v>3.693779017053081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.845052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>225194.4413788301</v>
+        <v>284536.9641910043</v>
       </c>
     </row>
     <row r="3">
@@ -49928,28 +49928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.0195996337931</v>
+        <v>182.8948404001455</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.1587022658397</v>
+        <v>250.2447893862592</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.9603980496568</v>
+        <v>226.3617779080752</v>
       </c>
       <c r="AD3" t="n">
-        <v>147019.5996337931</v>
+        <v>182894.8404001454</v>
       </c>
       <c r="AE3" t="n">
-        <v>201158.7022658396</v>
+        <v>250244.7893862592</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.395131494504225e-06</v>
+        <v>4.494206124305985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>181960.3980496569</v>
+        <v>226361.7779080752</v>
       </c>
     </row>
     <row r="4">
@@ -50034,28 +50034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.757137068863</v>
+        <v>176.6323778352154</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.5901247041572</v>
+        <v>241.6762118245768</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.2095935043845</v>
+        <v>218.6109733628029</v>
       </c>
       <c r="AD4" t="n">
-        <v>140757.137068863</v>
+        <v>176632.3778352154</v>
       </c>
       <c r="AE4" t="n">
-        <v>192590.1247041572</v>
+        <v>241676.2118245768</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.556216121409044e-06</v>
+        <v>4.796464066480903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>174209.5935043845</v>
+        <v>218610.9733628029</v>
       </c>
     </row>
     <row r="5">
@@ -50140,28 +50140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.9014510680687</v>
+        <v>161.8619431804416</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.2639197312691</v>
+        <v>221.466651504338</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.8232930060946</v>
+        <v>200.3301851152251</v>
       </c>
       <c r="AD5" t="n">
-        <v>125901.4510680687</v>
+        <v>161861.9431804417</v>
       </c>
       <c r="AE5" t="n">
-        <v>172263.9197312691</v>
+        <v>221466.651504338</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635572244678061e-06</v>
+        <v>4.945367279525838e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>155823.2930060946</v>
+        <v>200330.1851152251</v>
       </c>
     </row>
     <row r="6">
@@ -50246,28 +50246,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.1699613825121</v>
+        <v>160.1304534948851</v>
       </c>
       <c r="AB6" t="n">
-        <v>169.894819155558</v>
+        <v>219.0975509286269</v>
       </c>
       <c r="AC6" t="n">
-        <v>153.680296064275</v>
+        <v>198.1871881734056</v>
       </c>
       <c r="AD6" t="n">
-        <v>124169.9613825121</v>
+        <v>160130.4534948851</v>
       </c>
       <c r="AE6" t="n">
-        <v>169894.819155558</v>
+        <v>219097.5509286269</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.683779013731167e-06</v>
+        <v>5.035822086374061e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>153680.296064275</v>
+        <v>198187.1881734057</v>
       </c>
     </row>
     <row r="7">
@@ -50352,28 +50352,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.7863630377305</v>
+        <v>158.7468551501034</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.0017188601778</v>
+        <v>217.2044506332467</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.9678706041023</v>
+        <v>196.4747627132329</v>
       </c>
       <c r="AD7" t="n">
-        <v>122786.3630377305</v>
+        <v>158746.8551501035</v>
       </c>
       <c r="AE7" t="n">
-        <v>168001.7188601778</v>
+        <v>217204.4506332467</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720977937882383e-06</v>
+        <v>5.10562185858765e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>151967.8706041023</v>
+        <v>196474.7627132329</v>
       </c>
     </row>
     <row r="8">
@@ -50458,28 +50458,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.7506392196224</v>
+        <v>157.7111313319953</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.5845958393329</v>
+        <v>215.7873276124018</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.6859958154218</v>
+        <v>195.1928879245524</v>
       </c>
       <c r="AD8" t="n">
-        <v>121750.6392196224</v>
+        <v>157711.1313319953</v>
       </c>
       <c r="AE8" t="n">
-        <v>166584.5958393329</v>
+        <v>215787.3276124017</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752174739705628e-06</v>
+        <v>5.164159295106062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>150685.9958154218</v>
+        <v>195192.8879245524</v>
       </c>
     </row>
     <row r="9">
@@ -50564,28 +50564,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.9302232991691</v>
+        <v>156.890715411542</v>
       </c>
       <c r="AB9" t="n">
-        <v>165.4620665827734</v>
+        <v>214.6647983558422</v>
       </c>
       <c r="AC9" t="n">
-        <v>149.6705991756282</v>
+        <v>194.1774912847589</v>
       </c>
       <c r="AD9" t="n">
-        <v>120930.2232991691</v>
+        <v>156890.715411542</v>
       </c>
       <c r="AE9" t="n">
-        <v>165462.0665827733</v>
+        <v>214664.7983558422</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.772553487056327e-06</v>
+        <v>5.202397818276645e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>149670.5991756282</v>
+        <v>194177.4912847589</v>
       </c>
     </row>
     <row r="10">
@@ -50670,28 +50670,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.2824567858116</v>
+        <v>156.2429488981846</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.5757638617565</v>
+        <v>213.7784956348253</v>
       </c>
       <c r="AC10" t="n">
-        <v>148.8688839423712</v>
+        <v>193.3757760515019</v>
       </c>
       <c r="AD10" t="n">
-        <v>120282.4567858116</v>
+        <v>156242.9488981846</v>
       </c>
       <c r="AE10" t="n">
-        <v>164575.7638617565</v>
+        <v>213778.4956348253</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.788851740176151e-06</v>
+        <v>5.23297973378094e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>148868.8839423712</v>
+        <v>193375.7760515019</v>
       </c>
     </row>
     <row r="11">
@@ -50776,28 +50776,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.980828384803</v>
+        <v>155.941320497176</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.1630625765908</v>
+        <v>213.3657943496596</v>
       </c>
       <c r="AC11" t="n">
-        <v>148.4955702886317</v>
+        <v>193.0024623977623</v>
       </c>
       <c r="AD11" t="n">
-        <v>119980.828384803</v>
+        <v>155941.320497176</v>
       </c>
       <c r="AE11" t="n">
-        <v>164163.0625765908</v>
+        <v>213365.7943496596</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.787214797723068e-06</v>
+        <v>5.229908187682256e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>148495.5702886317</v>
+        <v>193002.4623977623</v>
       </c>
     </row>
     <row r="12">
@@ -50882,28 +50882,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>119.1892719546937</v>
+        <v>155.1497640670666</v>
       </c>
       <c r="AB12" t="n">
-        <v>163.0800201479106</v>
+        <v>212.2827519209795</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.5158919092849</v>
+        <v>192.0227840184155</v>
       </c>
       <c r="AD12" t="n">
-        <v>119189.2719546937</v>
+        <v>155149.7640670666</v>
       </c>
       <c r="AE12" t="n">
-        <v>163080.0201479106</v>
+        <v>212282.7519209795</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.808945801882835e-06</v>
+        <v>5.270684075021317e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>147515.8919092849</v>
+        <v>192022.7840184155</v>
       </c>
     </row>
     <row r="13">
@@ -50988,28 +50988,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.8240252624316</v>
+        <v>154.6139251742123</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.5802735100111</v>
+        <v>211.5495935082331</v>
       </c>
       <c r="AC13" t="n">
-        <v>147.0638403891075</v>
+        <v>191.3595972155871</v>
       </c>
       <c r="AD13" t="n">
-        <v>118824.0252624316</v>
+        <v>154613.9251742123</v>
       </c>
       <c r="AE13" t="n">
-        <v>162580.2735100111</v>
+        <v>211549.5935082331</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.809942201636886e-06</v>
+        <v>5.272553711777039e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>147063.8403891075</v>
+        <v>191359.5972155871</v>
       </c>
     </row>
     <row r="14">
@@ -51094,28 +51094,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>118.2534993333625</v>
+        <v>154.0433992451433</v>
       </c>
       <c r="AB14" t="n">
-        <v>161.7996547640315</v>
+        <v>210.7689747622536</v>
       </c>
       <c r="AC14" t="n">
-        <v>146.3577228006387</v>
+        <v>190.6534796271183</v>
       </c>
       <c r="AD14" t="n">
-        <v>118253.4993333625</v>
+        <v>154043.3992451433</v>
       </c>
       <c r="AE14" t="n">
-        <v>161799.6547640315</v>
+        <v>210768.9747622536</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.823512217334906e-06</v>
+        <v>5.298016383783527e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH14" t="n">
-        <v>146357.7228006387</v>
+        <v>190653.4796271183</v>
       </c>
     </row>
     <row r="15">
@@ -51200,28 +51200,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>118.0122388281714</v>
+        <v>153.8021387399521</v>
       </c>
       <c r="AB15" t="n">
-        <v>161.4695514971669</v>
+        <v>210.438871495389</v>
       </c>
       <c r="AC15" t="n">
-        <v>146.0591241262607</v>
+        <v>190.3548809527403</v>
       </c>
       <c r="AD15" t="n">
-        <v>118012.2388281714</v>
+        <v>153802.1387399521</v>
       </c>
       <c r="AE15" t="n">
-        <v>161469.5514971669</v>
+        <v>210438.871495389</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.826501416597057e-06</v>
+        <v>5.30362529405069e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>146059.1241262607</v>
+        <v>190354.8809527403</v>
       </c>
     </row>
     <row r="16">
@@ -51306,28 +51306,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>117.4967590545598</v>
+        <v>153.2866589663405</v>
       </c>
       <c r="AB16" t="n">
-        <v>160.7642493295493</v>
+        <v>209.7335693277713</v>
       </c>
       <c r="AC16" t="n">
-        <v>145.4211350076224</v>
+        <v>189.716891834102</v>
       </c>
       <c r="AD16" t="n">
-        <v>117496.7590545598</v>
+        <v>153286.6589663405</v>
       </c>
       <c r="AE16" t="n">
-        <v>160764.2493295493</v>
+        <v>209733.5693277713</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.829419444448205e-06</v>
+        <v>5.309100658835303e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>145421.1350076224</v>
+        <v>189716.891834102</v>
       </c>
     </row>
     <row r="17">
@@ -51412,28 +51412,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>116.9389240752904</v>
+        <v>152.7288239870712</v>
       </c>
       <c r="AB17" t="n">
-        <v>160.0009949009709</v>
+        <v>208.9703148991929</v>
       </c>
       <c r="AC17" t="n">
-        <v>144.7307245104731</v>
+        <v>189.0264813369526</v>
       </c>
       <c r="AD17" t="n">
-        <v>116938.9240752904</v>
+        <v>152728.8239870712</v>
       </c>
       <c r="AE17" t="n">
-        <v>160000.9949009709</v>
+        <v>208970.3148991929</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827996016228133e-06</v>
+        <v>5.306429749184272e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>144730.7245104731</v>
+        <v>189026.4813369526</v>
       </c>
     </row>
     <row r="18">
@@ -51518,28 +51518,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>116.4713221645836</v>
+        <v>152.2612220763643</v>
       </c>
       <c r="AB18" t="n">
-        <v>159.3612013376018</v>
+        <v>208.3305213358238</v>
       </c>
       <c r="AC18" t="n">
-        <v>144.1519919468357</v>
+        <v>188.4477487733153</v>
       </c>
       <c r="AD18" t="n">
-        <v>116471.3221645836</v>
+        <v>152261.2220763643</v>
       </c>
       <c r="AE18" t="n">
-        <v>159361.2013376018</v>
+        <v>208330.5213358238</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>5.343599908494442e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>144151.9919468357</v>
+        <v>188447.7487733153</v>
       </c>
     </row>
     <row r="19">
@@ -51624,28 +51624,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>116.3429354802379</v>
+        <v>152.1328353920186</v>
       </c>
       <c r="AB19" t="n">
-        <v>159.1855370120593</v>
+        <v>208.1548570102813</v>
       </c>
       <c r="AC19" t="n">
-        <v>143.9930927779766</v>
+        <v>188.2888496044562</v>
       </c>
       <c r="AD19" t="n">
-        <v>116342.9354802379</v>
+        <v>152132.8353920186</v>
       </c>
       <c r="AE19" t="n">
-        <v>159185.5370120593</v>
+        <v>208154.8570102813</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.84638196407073e-06</v>
+        <v>5.340928998843411e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>143993.0927779766</v>
+        <v>188288.8496044562</v>
       </c>
     </row>
     <row r="20">
@@ -51730,28 +51730,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>115.9726421892708</v>
+        <v>151.7625421010515</v>
       </c>
       <c r="AB20" t="n">
-        <v>158.6788853951714</v>
+        <v>207.6482053933934</v>
       </c>
       <c r="AC20" t="n">
-        <v>143.5347952803142</v>
+        <v>187.8305521067938</v>
       </c>
       <c r="AD20" t="n">
-        <v>115972.6421892708</v>
+        <v>151762.5421010515</v>
       </c>
       <c r="AE20" t="n">
-        <v>158678.8853951714</v>
+        <v>207648.2053933934</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>5.343599908494442e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>143534.7952803142</v>
+        <v>187830.5521067938</v>
       </c>
     </row>
     <row r="21">
@@ -51836,28 +51836,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>115.4285688193057</v>
+        <v>151.2184687310864</v>
       </c>
       <c r="AB21" t="n">
-        <v>157.9344602075624</v>
+        <v>206.9037802057844</v>
       </c>
       <c r="AC21" t="n">
-        <v>142.8614169878031</v>
+        <v>187.1571738142827</v>
       </c>
       <c r="AD21" t="n">
-        <v>115428.5688193057</v>
+        <v>151218.4687310864</v>
       </c>
       <c r="AE21" t="n">
-        <v>157934.4602075624</v>
+        <v>206903.7802057844</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.850747143945618e-06</v>
+        <v>5.349119788439904e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>142861.4169878031</v>
+        <v>187157.1738142827</v>
       </c>
     </row>
     <row r="22">
@@ -51942,28 +51942,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>114.9894643452453</v>
+        <v>150.7793642570261</v>
       </c>
       <c r="AB22" t="n">
-        <v>157.3336580942311</v>
+        <v>206.3029780924531</v>
       </c>
       <c r="AC22" t="n">
-        <v>142.3179545849369</v>
+        <v>186.6137114114165</v>
       </c>
       <c r="AD22" t="n">
-        <v>114989.4643452453</v>
+        <v>150779.3642570261</v>
       </c>
       <c r="AE22" t="n">
-        <v>157333.6580942311</v>
+        <v>206302.9780924531</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.848849239652188e-06</v>
+        <v>5.345558575571864e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>142317.9545849369</v>
+        <v>186613.7114114165</v>
       </c>
     </row>
     <row r="23">
@@ -52048,28 +52048,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>114.851220942454</v>
+        <v>150.6411208542347</v>
       </c>
       <c r="AB23" t="n">
-        <v>157.1445073716636</v>
+        <v>206.1138273698856</v>
       </c>
       <c r="AC23" t="n">
-        <v>142.1468561418565</v>
+        <v>186.442612968336</v>
       </c>
       <c r="AD23" t="n">
-        <v>114851.220942454</v>
+        <v>150641.1208542347</v>
       </c>
       <c r="AE23" t="n">
-        <v>157144.5073716636</v>
+        <v>206113.8273698856</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.849323715725546e-06</v>
+        <v>5.346448878788875e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>142146.8561418565</v>
+        <v>186442.612968336</v>
       </c>
     </row>
   </sheetData>
@@ -52345,28 +52345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.68611679991332</v>
+        <v>88.00659223493089</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.34761934010236</v>
+        <v>120.4145020726142</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.24777637153069</v>
+        <v>108.9223109976504</v>
       </c>
       <c r="AD2" t="n">
-        <v>69686.11679991332</v>
+        <v>88006.5922349309</v>
       </c>
       <c r="AE2" t="n">
-        <v>95347.61934010235</v>
+        <v>120414.5020726142</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814973828820308e-06</v>
+        <v>9.540960029302403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86247.77637153069</v>
+        <v>108922.3109976504</v>
       </c>
     </row>
   </sheetData>
@@ -52642,28 +52642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.1920571237552</v>
+        <v>152.548646700763</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.4520750559793</v>
+        <v>208.7237883872053</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.7569998226191</v>
+        <v>188.8034829692669</v>
       </c>
       <c r="AD2" t="n">
-        <v>120192.0571237552</v>
+        <v>152548.646700763</v>
       </c>
       <c r="AE2" t="n">
-        <v>164452.0750559793</v>
+        <v>208723.7883872053</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.758955718033218e-06</v>
+        <v>5.681471871829091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148756.9998226191</v>
+        <v>188803.4829692669</v>
       </c>
     </row>
     <row r="3">
@@ -52748,28 +52748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.8306629647384</v>
+        <v>134.2725038877667</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.3292055200851</v>
+        <v>183.7175635039603</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.0318216950538</v>
+        <v>166.1838170924138</v>
       </c>
       <c r="AD3" t="n">
-        <v>101830.6629647384</v>
+        <v>134272.5038877667</v>
       </c>
       <c r="AE3" t="n">
-        <v>139329.2055200851</v>
+        <v>183717.5635039603</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061961660246138e-06</v>
+        <v>6.305446996339972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.553385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>126031.8216950537</v>
+        <v>166183.8170924138</v>
       </c>
     </row>
     <row r="4">
@@ -52854,28 +52854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.30728697147944</v>
+        <v>131.5785356939156</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.8766111626178</v>
+        <v>180.0315573716463</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.9087380973155</v>
+        <v>162.8495982120245</v>
       </c>
       <c r="AD4" t="n">
-        <v>99307.28697147944</v>
+        <v>131578.5356939156</v>
       </c>
       <c r="AE4" t="n">
-        <v>135876.6111626179</v>
+        <v>180031.5573716463</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.167231207644247e-06</v>
+        <v>6.522226833940588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>122908.7380973155</v>
+        <v>162849.5982120245</v>
       </c>
     </row>
     <row r="5">
@@ -52960,28 +52960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.61023018732749</v>
+        <v>119.2382136445641</v>
       </c>
       <c r="AB5" t="n">
-        <v>133.554623201681</v>
+        <v>163.1469843271462</v>
       </c>
       <c r="AC5" t="n">
-        <v>120.8083574084392</v>
+        <v>147.5764651212391</v>
       </c>
       <c r="AD5" t="n">
-        <v>97610.23018732748</v>
+        <v>119238.2136445641</v>
       </c>
       <c r="AE5" t="n">
-        <v>133554.623201681</v>
+        <v>163146.9843271462</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.232655617345131e-06</v>
+        <v>6.656954238594831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>120808.3574084391</v>
+        <v>147576.4651212391</v>
       </c>
     </row>
     <row r="6">
@@ -53066,28 +53066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.45806315653951</v>
+        <v>118.0860466137761</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.9781774401357</v>
+        <v>161.5705385656009</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.3823654178197</v>
+        <v>146.1504731306196</v>
       </c>
       <c r="AD6" t="n">
-        <v>96458.06315653952</v>
+        <v>118086.0466137761</v>
       </c>
       <c r="AE6" t="n">
-        <v>131978.1774401357</v>
+        <v>161570.5385656009</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.265890381378488e-06</v>
+        <v>6.725394038403215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>119382.3654178197</v>
+        <v>146150.4731306196</v>
       </c>
     </row>
     <row r="7">
@@ -53172,28 +53172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.82885786771172</v>
+        <v>117.4568413249483</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.1172710053837</v>
+        <v>160.7096321308489</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.6036226849104</v>
+        <v>145.3717303977103</v>
       </c>
       <c r="AD7" t="n">
-        <v>95828.85786771172</v>
+        <v>117456.8413249483</v>
       </c>
       <c r="AE7" t="n">
-        <v>131117.2710053837</v>
+        <v>160709.6321308489</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.276237053200193e-06</v>
+        <v>6.74670076853224e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>118603.6226849104</v>
+        <v>145371.7303977103</v>
       </c>
     </row>
     <row r="8">
@@ -53278,28 +53278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.79203358539142</v>
+        <v>116.420017042628</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.6986422808547</v>
+        <v>159.29100340632</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.3203858947921</v>
+        <v>144.088493607592</v>
       </c>
       <c r="AD8" t="n">
-        <v>94792.03358539143</v>
+        <v>116420.017042628</v>
       </c>
       <c r="AE8" t="n">
-        <v>129698.6422808547</v>
+        <v>159291.00340632</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299438680921593e-06</v>
+        <v>6.794479496700358e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>117320.3858947921</v>
+        <v>144088.493607592</v>
       </c>
     </row>
     <row r="9">
@@ -53384,28 +53384,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.64531074862686</v>
+        <v>116.2732942058635</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.4978896226388</v>
+        <v>159.0902507481041</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.1387927885181</v>
+        <v>143.906900501318</v>
       </c>
       <c r="AD9" t="n">
-        <v>94645.31074862686</v>
+        <v>116273.2942058635</v>
       </c>
       <c r="AE9" t="n">
-        <v>129497.8896226388</v>
+        <v>159090.2507481041</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.296904268884458e-06</v>
+        <v>6.789260423916228e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH9" t="n">
-        <v>117138.7927885181</v>
+        <v>143906.900501318</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.839954419916</v>
+        <v>180.799842880438</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.8622184730829</v>
+        <v>247.3783213550294</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.1237892013261</v>
+        <v>223.7688815626319</v>
       </c>
       <c r="AD2" t="n">
-        <v>135839.954419916</v>
+        <v>180799.842880438</v>
       </c>
       <c r="AE2" t="n">
-        <v>185862.218473083</v>
+        <v>247378.3213550294</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.450283582632579e-06</v>
+        <v>4.854462903273971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.686197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168123.7892013261</v>
+        <v>223768.8815626319</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.8398293678626</v>
+        <v>146.6237513541828</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.3924326829754</v>
+        <v>200.6170851860835</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.6574355988947</v>
+        <v>181.4704721438281</v>
       </c>
       <c r="AD3" t="n">
-        <v>112839.8293678626</v>
+        <v>146623.7513541828</v>
       </c>
       <c r="AE3" t="n">
-        <v>154392.4326829754</v>
+        <v>200617.0851860835</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808851851066898e-06</v>
+        <v>5.564852659685523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139657.4355988947</v>
+        <v>181470.4721438281</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.2521529368501</v>
+        <v>143.0360749231703</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.4836155129531</v>
+        <v>195.7082680160612</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.2171090500096</v>
+        <v>177.030145594943</v>
       </c>
       <c r="AD4" t="n">
-        <v>109252.1529368501</v>
+        <v>143036.0749231703</v>
       </c>
       <c r="AE4" t="n">
-        <v>149483.6155129531</v>
+        <v>195708.2680160612</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.942076037234159e-06</v>
+        <v>5.828794300625298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.56640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>135217.1090500096</v>
+        <v>177030.145594943</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.5795398487355</v>
+        <v>141.1928696344635</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.1950724953143</v>
+        <v>193.1863132235756</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.1469813659833</v>
+        <v>174.7488826282656</v>
       </c>
       <c r="AD5" t="n">
-        <v>107579.5398487355</v>
+        <v>141192.8696344635</v>
       </c>
       <c r="AE5" t="n">
-        <v>147195.0724953144</v>
+        <v>193186.3132235756</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00197157863602e-06</v>
+        <v>5.947458395617294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>133146.9813659833</v>
+        <v>174748.8826282656</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.3800835611274</v>
+        <v>139.9934133468555</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.553923486333</v>
+        <v>191.5451642145943</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.6624613150515</v>
+        <v>173.2643625773339</v>
       </c>
       <c r="AD6" t="n">
-        <v>106380.0835611275</v>
+        <v>139993.4133468555</v>
       </c>
       <c r="AE6" t="n">
-        <v>145553.923486333</v>
+        <v>191545.1642145943</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.039025813195003e-06</v>
+        <v>6.020869656399827e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>131662.4613150515</v>
+        <v>173264.3625773339</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.1916005539786</v>
+        <v>138.8049303397066</v>
       </c>
       <c r="AB7" t="n">
-        <v>143.927788603783</v>
+        <v>189.9190293320442</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.1915224633969</v>
+        <v>171.7934237256793</v>
       </c>
       <c r="AD7" t="n">
-        <v>105191.6005539786</v>
+        <v>138804.9303397066</v>
       </c>
       <c r="AE7" t="n">
-        <v>143927.788603783</v>
+        <v>189919.0293320442</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.074117909060435e-06</v>
+        <v>6.090393559177581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.325520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>130191.5224633969</v>
+        <v>171793.4237256793</v>
       </c>
     </row>
     <row r="8">
@@ -54317,28 +54317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.5768050225889</v>
+        <v>138.1901348083169</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.0865982348715</v>
+        <v>189.0778389631327</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.4306141226759</v>
+        <v>171.0325153849583</v>
       </c>
       <c r="AD8" t="n">
-        <v>104576.8050225889</v>
+        <v>138190.1348083169</v>
       </c>
       <c r="AE8" t="n">
-        <v>143086.5982348715</v>
+        <v>189077.8389631327</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.090267819845817e-06</v>
+        <v>6.12238950583229e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>129430.6141226759</v>
+        <v>171032.5153849583</v>
       </c>
     </row>
     <row r="9">
@@ -54423,28 +54423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.5555317676413</v>
+        <v>126.0782359337392</v>
       </c>
       <c r="AB9" t="n">
-        <v>141.6892471120567</v>
+        <v>172.5058045836771</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.1666242298275</v>
+        <v>156.0420927076763</v>
       </c>
       <c r="AD9" t="n">
-        <v>103555.5317676413</v>
+        <v>126078.2359337392</v>
       </c>
       <c r="AE9" t="n">
-        <v>141689.2471120567</v>
+        <v>172505.8045836771</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108304402451921e-06</v>
+        <v>6.158123296722361e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.266927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>128166.6242298275</v>
+        <v>156042.0927076763</v>
       </c>
     </row>
     <row r="10">
@@ -54529,28 +54529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>103.2902902475798</v>
+        <v>125.8129944136777</v>
       </c>
       <c r="AB10" t="n">
-        <v>141.3263319626787</v>
+        <v>172.1428894342991</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.8383451929514</v>
+        <v>155.7138136708003</v>
       </c>
       <c r="AD10" t="n">
-        <v>103290.2902475798</v>
+        <v>125812.9944136777</v>
       </c>
       <c r="AE10" t="n">
-        <v>141326.3319626787</v>
+        <v>172142.8894342991</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.106367419382646e-06</v>
+        <v>6.154285776640722e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>127838.3451929514</v>
+        <v>155713.8136708003</v>
       </c>
     </row>
     <row r="11">
@@ -54635,28 +54635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>102.5772428685824</v>
+        <v>125.0999470346802</v>
       </c>
       <c r="AB11" t="n">
-        <v>140.3507090813047</v>
+        <v>171.1672665529251</v>
       </c>
       <c r="AC11" t="n">
-        <v>126.9558343900801</v>
+        <v>154.831302867929</v>
       </c>
       <c r="AD11" t="n">
-        <v>102577.2428685824</v>
+        <v>125099.9470346802</v>
       </c>
       <c r="AE11" t="n">
-        <v>140350.7090813047</v>
+        <v>171167.2665529251</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.121259548954214e-06</v>
+        <v>6.183789827138523e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>126955.8343900801</v>
+        <v>154831.302867929</v>
       </c>
     </row>
     <row r="12">
@@ -54741,28 +54741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>102.0507271373898</v>
+        <v>124.5734313034877</v>
       </c>
       <c r="AB12" t="n">
-        <v>139.6303070296527</v>
+        <v>170.4468645012732</v>
       </c>
       <c r="AC12" t="n">
-        <v>126.304186499147</v>
+        <v>154.1796549769958</v>
       </c>
       <c r="AD12" t="n">
-        <v>102050.7271373898</v>
+        <v>124573.4313034877</v>
       </c>
       <c r="AE12" t="n">
-        <v>139630.3070296527</v>
+        <v>170446.8645012731</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.124705869480066e-06</v>
+        <v>6.190617622608452e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>126304.186499147</v>
+        <v>154179.6549769958</v>
       </c>
     </row>
     <row r="13">
@@ -54847,28 +54847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.7655808909333</v>
+        <v>124.2882850570311</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.2401573554865</v>
+        <v>170.0567148271069</v>
       </c>
       <c r="AC13" t="n">
-        <v>125.9512721623045</v>
+        <v>153.8267406401534</v>
       </c>
       <c r="AD13" t="n">
-        <v>101765.5808909333</v>
+        <v>124288.2850570311</v>
       </c>
       <c r="AE13" t="n">
-        <v>139240.1573554865</v>
+        <v>170056.7148271069</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.126441607555131e-06</v>
+        <v>6.194056439304987e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>125951.2721623045</v>
+        <v>153826.7406401534</v>
       </c>
     </row>
   </sheetData>
